--- a/data/Maipú.xlsx
+++ b/data/Maipú.xlsx
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos líquidos que contengan aceites, lubricantes y combustibles usados, residuos de galvanoplastia y otros residuos industriales inorgánicos que no contengan metales pesados SENA - RIL Ltda</t>
+          <t>Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5858,16 +5858,16 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Sena-Ril Limitada</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>620</v>
+        <v>706</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5876,12 +5876,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7036699&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Óxido de Calcio</t>
+          <t>Planta de Tratamiento de Residuos líquidos que contengan aceites, lubricantes y combustibles usados, residuos de galvanoplastia y otros residuos industriales inorgánicos que no contengan metales pesados SENA - RIL Ltda</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5906,16 +5906,16 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>Sena-Ril Limitada</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>706</v>
+        <v>620</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7036699&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -12818,16 +12818,16 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F260" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
@@ -12836,12 +12836,12 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
@@ -12866,16 +12866,16 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F261" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
@@ -12884,12 +12884,12 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -15732,7 +15732,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15747,7 +15747,7 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F321" t="n">
@@ -15760,12 +15760,12 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -15780,7 +15780,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15795,7 +15795,7 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F322" t="n">
@@ -15808,12 +15808,12 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -17412,7 +17412,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Elaboradora y Embotelladora de Bebidas Analcohólicas (e-seia)</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -17422,16 +17422,16 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>ALIMENTOS FRUNA LTDA.</t>
         </is>
       </c>
       <c r="F356" t="n">
-        <v>72</v>
+        <v>3000</v>
       </c>
       <c r="G356" t="inlineStr">
         <is>
@@ -17445,7 +17445,7 @@
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1199149&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
@@ -17460,7 +17460,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Elaboradora y Embotelladora de Bebidas Analcohólicas (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -17470,16 +17470,16 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>ALIMENTOS FRUNA LTDA.</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F357" t="n">
-        <v>3000</v>
+        <v>72</v>
       </c>
       <c r="G357" t="inlineStr">
         <is>
@@ -17493,7 +17493,7 @@
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1199149&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
@@ -19188,7 +19188,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -19216,12 +19216,12 @@
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">
@@ -19236,7 +19236,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -19264,12 +19264,12 @@
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J394" t="inlineStr">
@@ -20532,7 +20532,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Construcción de Unidad Deshumificadora de Aceite Lubricante Usado para Mejoramiento de la Calidad del Petroleo Combustible Recuperado</t>
+          <t>Almacenaje y Transporte de Cal (e-seia)</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20542,16 +20542,16 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Portuaria Carranza S.A.</t>
         </is>
       </c>
       <c r="F421" t="n">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="G421" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6165&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45541&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
@@ -20580,7 +20580,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Almacenaje y Transporte de Cal (e-seia)</t>
+          <t>Construcción de Unidad Deshumificadora de Aceite Lubricante Usado para Mejoramiento de la Calidad del Petroleo Combustible Recuperado</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -20590,16 +20590,16 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>Portuaria Carranza S.A.</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>177</v>
+        <v>250</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20613,7 +20613,7 @@
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45541&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6165&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">

--- a/data/Maipú.xlsx
+++ b/data/Maipú.xlsx
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Óxido de Calcio</t>
+          <t>Planta de Tratamiento de Residuos líquidos que contengan aceites, lubricantes y combustibles usados, residuos de galvanoplastia y otros residuos industriales inorgánicos que no contengan metales pesados SENA - RIL Ltda</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5858,16 +5858,16 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>Sena-Ril Limitada</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>706</v>
+        <v>620</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5876,12 +5876,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7036699&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos líquidos que contengan aceites, lubricantes y combustibles usados, residuos de galvanoplastia y otros residuos industriales inorgánicos que no contengan metales pesados SENA - RIL Ltda</t>
+          <t>Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5906,16 +5906,16 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Sena-Ril Limitada</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>620</v>
+        <v>706</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7036699&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -12818,16 +12818,16 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F260" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
@@ -12836,12 +12836,12 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
@@ -12866,16 +12866,16 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F261" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
@@ -12884,12 +12884,12 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -15732,7 +15732,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15747,7 +15747,7 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F321" t="n">
@@ -15760,12 +15760,12 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -15780,7 +15780,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15795,7 +15795,7 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F322" t="n">
@@ -15808,12 +15808,12 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -17412,7 +17412,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Elaboradora y Embotelladora de Bebidas Analcohólicas (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -17422,16 +17422,16 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>ALIMENTOS FRUNA LTDA.</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F356" t="n">
-        <v>3000</v>
+        <v>72</v>
       </c>
       <c r="G356" t="inlineStr">
         <is>
@@ -17445,7 +17445,7 @@
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1199149&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
@@ -17460,7 +17460,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Elaboradora y Embotelladora de Bebidas Analcohólicas (e-seia)</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -17470,16 +17470,16 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>ALIMENTOS FRUNA LTDA.</t>
         </is>
       </c>
       <c r="F357" t="n">
-        <v>72</v>
+        <v>3000</v>
       </c>
       <c r="G357" t="inlineStr">
         <is>
@@ -17493,7 +17493,7 @@
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1199149&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
@@ -19188,7 +19188,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -19216,12 +19216,12 @@
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">
@@ -19236,7 +19236,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -19264,12 +19264,12 @@
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J394" t="inlineStr">
@@ -20532,7 +20532,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Almacenaje y Transporte de Cal (e-seia)</t>
+          <t>Construcción de Unidad Deshumificadora de Aceite Lubricante Usado para Mejoramiento de la Calidad del Petroleo Combustible Recuperado</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20542,16 +20542,16 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>Portuaria Carranza S.A.</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F421" t="n">
-        <v>177</v>
+        <v>250</v>
       </c>
       <c r="G421" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45541&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6165&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
@@ -20580,7 +20580,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Construcción de Unidad Deshumificadora de Aceite Lubricante Usado para Mejoramiento de la Calidad del Petroleo Combustible Recuperado</t>
+          <t>Almacenaje y Transporte de Cal (e-seia)</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -20590,16 +20590,16 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Portuaria Carranza S.A.</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20613,7 +20613,7 @@
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6165&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45541&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">

--- a/data/Maipú.xlsx
+++ b/data/Maipú.xlsx
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos líquidos que contengan aceites, lubricantes y combustibles usados, residuos de galvanoplastia y otros residuos industriales inorgánicos que no contengan metales pesados SENA - RIL Ltda</t>
+          <t>Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5906,16 +5906,16 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Sena-Ril Limitada</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>620</v>
+        <v>706</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7036699&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Óxido de Calcio</t>
+          <t>Planta de Tratamiento de Residuos líquidos que contengan aceites, lubricantes y combustibles usados, residuos de galvanoplastia y otros residuos industriales inorgánicos que no contengan metales pesados SENA - RIL Ltda</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5954,16 +5954,16 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>Sena-Ril Limitada</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>706</v>
+        <v>620</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5972,12 +5972,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7036699&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -12866,16 +12866,16 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F261" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
@@ -12884,12 +12884,12 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -12914,16 +12914,16 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F262" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -12932,12 +12932,12 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -15780,7 +15780,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15795,7 +15795,7 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F322" t="n">
@@ -15808,12 +15808,12 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -15828,7 +15828,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15843,7 +15843,7 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F323" t="n">
@@ -15856,12 +15856,12 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -17460,7 +17460,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Elaboradora y Embotelladora de Bebidas Analcohólicas (e-seia)</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -17470,16 +17470,16 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>ALIMENTOS FRUNA LTDA.</t>
         </is>
       </c>
       <c r="F357" t="n">
-        <v>72</v>
+        <v>3000</v>
       </c>
       <c r="G357" t="inlineStr">
         <is>
@@ -17493,7 +17493,7 @@
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1199149&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
@@ -17508,7 +17508,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Elaboradora y Embotelladora de Bebidas Analcohólicas (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -17518,16 +17518,16 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>ALIMENTOS FRUNA LTDA.</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F358" t="n">
-        <v>3000</v>
+        <v>72</v>
       </c>
       <c r="G358" t="inlineStr">
         <is>
@@ -17541,7 +17541,7 @@
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1199149&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
@@ -19236,7 +19236,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -19264,12 +19264,12 @@
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J394" t="inlineStr">
@@ -19284,7 +19284,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -19312,12 +19312,12 @@
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I395" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J395" t="inlineStr">
@@ -20580,7 +20580,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Construcción de Unidad Deshumificadora de Aceite Lubricante Usado para Mejoramiento de la Calidad del Petroleo Combustible Recuperado</t>
+          <t>Almacenaje y Transporte de Cal (e-seia)</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -20590,16 +20590,16 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Portuaria Carranza S.A.</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20613,7 +20613,7 @@
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6165&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45541&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -20628,7 +20628,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Almacenaje y Transporte de Cal (e-seia)</t>
+          <t>Construcción de Unidad Deshumificadora de Aceite Lubricante Usado para Mejoramiento de la Calidad del Petroleo Combustible Recuperado</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20638,16 +20638,16 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Portuaria Carranza S.A.</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>177</v>
+        <v>250</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45541&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6165&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">

--- a/data/Maipú.xlsx
+++ b/data/Maipú.xlsx
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Óxido de Calcio</t>
+          <t>Planta de Tratamiento de Residuos líquidos que contengan aceites, lubricantes y combustibles usados, residuos de galvanoplastia y otros residuos industriales inorgánicos que no contengan metales pesados SENA - RIL Ltda</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5906,16 +5906,16 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>Sena-Ril Limitada</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>706</v>
+        <v>620</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7036699&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos líquidos que contengan aceites, lubricantes y combustibles usados, residuos de galvanoplastia y otros residuos industriales inorgánicos que no contengan metales pesados SENA - RIL Ltda</t>
+          <t>Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5954,16 +5954,16 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Sena-Ril Limitada</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>620</v>
+        <v>706</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5972,12 +5972,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7036699&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -12866,16 +12866,16 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F261" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
@@ -12884,12 +12884,12 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -12914,16 +12914,16 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F262" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -12932,12 +12932,12 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -15780,7 +15780,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15795,7 +15795,7 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F322" t="n">
@@ -15808,12 +15808,12 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -15828,7 +15828,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15843,7 +15843,7 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F323" t="n">
@@ -15856,12 +15856,12 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -17460,7 +17460,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Elaboradora y Embotelladora de Bebidas Analcohólicas (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -17470,16 +17470,16 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>ALIMENTOS FRUNA LTDA.</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F357" t="n">
-        <v>3000</v>
+        <v>72</v>
       </c>
       <c r="G357" t="inlineStr">
         <is>
@@ -17493,7 +17493,7 @@
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1199149&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
@@ -17508,7 +17508,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Elaboradora y Embotelladora de Bebidas Analcohólicas (e-seia)</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -17518,16 +17518,16 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>ALIMENTOS FRUNA LTDA.</t>
         </is>
       </c>
       <c r="F358" t="n">
-        <v>72</v>
+        <v>3000</v>
       </c>
       <c r="G358" t="inlineStr">
         <is>
@@ -17541,7 +17541,7 @@
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1199149&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
@@ -19236,7 +19236,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -19264,12 +19264,12 @@
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J394" t="inlineStr">
@@ -19284,7 +19284,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -19312,12 +19312,12 @@
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I395" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J395" t="inlineStr">
@@ -20580,7 +20580,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Almacenaje y Transporte de Cal (e-seia)</t>
+          <t>Construcción de Unidad Deshumificadora de Aceite Lubricante Usado para Mejoramiento de la Calidad del Petroleo Combustible Recuperado</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -20590,16 +20590,16 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>Portuaria Carranza S.A.</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>177</v>
+        <v>250</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20613,7 +20613,7 @@
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45541&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6165&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -20628,7 +20628,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Construcción de Unidad Deshumificadora de Aceite Lubricante Usado para Mejoramiento de la Calidad del Petroleo Combustible Recuperado</t>
+          <t>Almacenaje y Transporte de Cal (e-seia)</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20638,16 +20638,16 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Portuaria Carranza S.A.</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6165&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45541&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">

--- a/data/Maipú.xlsx
+++ b/data/Maipú.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/02/2022</t>
+          <t>25/02/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos líquidos que contengan aceites, lubricantes y combustibles usados, residuos de galvanoplastia y otros residuos industriales inorgánicos que no contengan metales pesados SENA - RIL Ltda</t>
+          <t>Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5906,16 +5906,16 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Sena-Ril Limitada</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>620</v>
+        <v>706</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7036699&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Óxido de Calcio</t>
+          <t>Planta de Tratamiento de Residuos líquidos que contengan aceites, lubricantes y combustibles usados, residuos de galvanoplastia y otros residuos industriales inorgánicos que no contengan metales pesados SENA - RIL Ltda</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5954,16 +5954,16 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>Sena-Ril Limitada</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>706</v>
+        <v>620</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5972,12 +5972,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7036699&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -12866,16 +12866,16 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F261" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
@@ -12884,12 +12884,12 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -12914,16 +12914,16 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F262" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -12932,12 +12932,12 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -15780,7 +15780,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15795,7 +15795,7 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F322" t="n">
@@ -15808,12 +15808,12 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -15828,7 +15828,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15843,7 +15843,7 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F323" t="n">
@@ -15856,12 +15856,12 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -17460,7 +17460,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Elaboradora y Embotelladora de Bebidas Analcohólicas (e-seia)</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -17470,16 +17470,16 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>ALIMENTOS FRUNA LTDA.</t>
         </is>
       </c>
       <c r="F357" t="n">
-        <v>72</v>
+        <v>3000</v>
       </c>
       <c r="G357" t="inlineStr">
         <is>
@@ -17493,7 +17493,7 @@
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1199149&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
@@ -17508,7 +17508,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Elaboradora y Embotelladora de Bebidas Analcohólicas (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -17518,16 +17518,16 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>ALIMENTOS FRUNA LTDA.</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F358" t="n">
-        <v>3000</v>
+        <v>72</v>
       </c>
       <c r="G358" t="inlineStr">
         <is>
@@ -17541,7 +17541,7 @@
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1199149&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
@@ -19236,7 +19236,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -19264,12 +19264,12 @@
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J394" t="inlineStr">
@@ -19284,7 +19284,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -19312,12 +19312,12 @@
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I395" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J395" t="inlineStr">
@@ -20580,7 +20580,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Construcción de Unidad Deshumificadora de Aceite Lubricante Usado para Mejoramiento de la Calidad del Petroleo Combustible Recuperado</t>
+          <t>Almacenaje y Transporte de Cal (e-seia)</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -20590,16 +20590,16 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Portuaria Carranza S.A.</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20613,7 +20613,7 @@
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6165&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45541&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -20628,7 +20628,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Almacenaje y Transporte de Cal (e-seia)</t>
+          <t>Construcción de Unidad Deshumificadora de Aceite Lubricante Usado para Mejoramiento de la Calidad del Petroleo Combustible Recuperado</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20638,16 +20638,16 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Portuaria Carranza S.A.</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>177</v>
+        <v>250</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45541&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6165&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">

--- a/data/Maipú.xlsx
+++ b/data/Maipú.xlsx
@@ -740,7 +740,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos líquidos que contengan aceites, lubricantes y combustibles usados, residuos de galvanoplastia y otros residuos industriales inorgánicos que no contengan metales pesados SENA - RIL Ltda</t>
+          <t>Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5906,16 +5906,16 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Sena-Ril Limitada</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>620</v>
+        <v>706</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7036699&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Óxido de Calcio</t>
+          <t>Planta de Tratamiento de Residuos líquidos que contengan aceites, lubricantes y combustibles usados, residuos de galvanoplastia y otros residuos industriales inorgánicos que no contengan metales pesados SENA - RIL Ltda</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5954,16 +5954,16 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>Sena-Ril Limitada</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>706</v>
+        <v>620</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5972,12 +5972,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7036699&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -12866,16 +12866,16 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F261" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
@@ -12884,12 +12884,12 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -12914,16 +12914,16 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F262" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -12932,12 +12932,12 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -15780,7 +15780,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15795,7 +15795,7 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F322" t="n">
@@ -15808,12 +15808,12 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -15828,7 +15828,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15843,7 +15843,7 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F323" t="n">
@@ -15856,12 +15856,12 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -17460,7 +17460,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Elaboradora y Embotelladora de Bebidas Analcohólicas (e-seia)</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -17470,16 +17470,16 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>ALIMENTOS FRUNA LTDA.</t>
         </is>
       </c>
       <c r="F357" t="n">
-        <v>72</v>
+        <v>3000</v>
       </c>
       <c r="G357" t="inlineStr">
         <is>
@@ -17493,7 +17493,7 @@
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1199149&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
@@ -17508,7 +17508,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Elaboradora y Embotelladora de Bebidas Analcohólicas (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -17518,16 +17518,16 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>ALIMENTOS FRUNA LTDA.</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F358" t="n">
-        <v>3000</v>
+        <v>72</v>
       </c>
       <c r="G358" t="inlineStr">
         <is>
@@ -17541,7 +17541,7 @@
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1199149&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
@@ -19236,7 +19236,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -19264,12 +19264,12 @@
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J394" t="inlineStr">
@@ -19284,7 +19284,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -19312,12 +19312,12 @@
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I395" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J395" t="inlineStr">
@@ -20580,7 +20580,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Construcción de Unidad Deshumificadora de Aceite Lubricante Usado para Mejoramiento de la Calidad del Petroleo Combustible Recuperado</t>
+          <t>Almacenaje y Transporte de Cal (e-seia)</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -20590,16 +20590,16 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Portuaria Carranza S.A.</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20613,7 +20613,7 @@
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6165&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45541&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -20628,7 +20628,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Almacenaje y Transporte de Cal (e-seia)</t>
+          <t>Construcción de Unidad Deshumificadora de Aceite Lubricante Usado para Mejoramiento de la Calidad del Petroleo Combustible Recuperado</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20638,16 +20638,16 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Portuaria Carranza S.A.</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>177</v>
+        <v>250</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45541&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6165&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">

--- a/data/Maipú.xlsx
+++ b/data/Maipú.xlsx
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Óxido de Calcio</t>
+          <t>Planta de Tratamiento de Residuos líquidos que contengan aceites, lubricantes y combustibles usados, residuos de galvanoplastia y otros residuos industriales inorgánicos que no contengan metales pesados SENA - RIL Ltda</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5954,16 +5954,16 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>Sena-Ril Limitada</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>706</v>
+        <v>620</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5972,12 +5972,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7036699&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos líquidos que contengan aceites, lubricantes y combustibles usados, residuos de galvanoplastia y otros residuos industriales inorgánicos que no contengan metales pesados SENA - RIL Ltda</t>
+          <t>Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6002,16 +6002,16 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Sena-Ril Limitada</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>620</v>
+        <v>706</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6020,12 +6020,12 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7036699&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -12914,16 +12914,16 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F262" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -12932,12 +12932,12 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -12962,16 +12962,16 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F263" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
@@ -12980,12 +12980,12 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
@@ -15828,7 +15828,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15843,7 +15843,7 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F323" t="n">
@@ -15856,12 +15856,12 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -15876,7 +15876,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15891,7 +15891,7 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F324" t="n">
@@ -15904,12 +15904,12 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -17508,7 +17508,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Elaboradora y Embotelladora de Bebidas Analcohólicas (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -17518,16 +17518,16 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>ALIMENTOS FRUNA LTDA.</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F358" t="n">
-        <v>3000</v>
+        <v>72</v>
       </c>
       <c r="G358" t="inlineStr">
         <is>
@@ -17541,7 +17541,7 @@
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1199149&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
@@ -17556,7 +17556,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Elaboradora y Embotelladora de Bebidas Analcohólicas (e-seia)</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -17566,16 +17566,16 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>ALIMENTOS FRUNA LTDA.</t>
         </is>
       </c>
       <c r="F359" t="n">
-        <v>72</v>
+        <v>3000</v>
       </c>
       <c r="G359" t="inlineStr">
         <is>
@@ -17589,7 +17589,7 @@
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1199149&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
@@ -19284,7 +19284,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -19312,12 +19312,12 @@
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I395" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J395" t="inlineStr">
@@ -19332,7 +19332,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -19360,12 +19360,12 @@
       </c>
       <c r="H396" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I396" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J396" t="inlineStr">
@@ -20628,7 +20628,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Almacenaje y Transporte de Cal (e-seia)</t>
+          <t>Construcción de Unidad Deshumificadora de Aceite Lubricante Usado para Mejoramiento de la Calidad del Petroleo Combustible Recuperado</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20638,16 +20638,16 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Portuaria Carranza S.A.</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>177</v>
+        <v>250</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45541&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6165&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -20676,7 +20676,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Construcción de Unidad Deshumificadora de Aceite Lubricante Usado para Mejoramiento de la Calidad del Petroleo Combustible Recuperado</t>
+          <t>Almacenaje y Transporte de Cal (e-seia)</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -20686,16 +20686,16 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Portuaria Carranza S.A.</t>
         </is>
       </c>
       <c r="F424" t="n">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="G424" t="inlineStr">
         <is>
@@ -20709,7 +20709,7 @@
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6165&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45541&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">

--- a/data/Maipú.xlsx
+++ b/data/Maipú.xlsx
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos líquidos que contengan aceites, lubricantes y combustibles usados, residuos de galvanoplastia y otros residuos industriales inorgánicos que no contengan metales pesados SENA - RIL Ltda</t>
+          <t>Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5954,16 +5954,16 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Sena-Ril Limitada</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>620</v>
+        <v>706</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5972,12 +5972,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7036699&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Óxido de Calcio</t>
+          <t>Planta de Tratamiento de Residuos líquidos que contengan aceites, lubricantes y combustibles usados, residuos de galvanoplastia y otros residuos industriales inorgánicos que no contengan metales pesados SENA - RIL Ltda</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6002,16 +6002,16 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>Sena-Ril Limitada</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>706</v>
+        <v>620</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6020,12 +6020,12 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7036699&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -12914,16 +12914,16 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F262" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -12932,12 +12932,12 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -12962,16 +12962,16 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F263" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
@@ -12980,12 +12980,12 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
@@ -15828,7 +15828,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15843,7 +15843,7 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F323" t="n">
@@ -15856,12 +15856,12 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -15876,7 +15876,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15891,7 +15891,7 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F324" t="n">
@@ -15904,12 +15904,12 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -17508,7 +17508,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Elaboradora y Embotelladora de Bebidas Analcohólicas (e-seia)</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -17518,16 +17518,16 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>ALIMENTOS FRUNA LTDA.</t>
         </is>
       </c>
       <c r="F358" t="n">
-        <v>72</v>
+        <v>3000</v>
       </c>
       <c r="G358" t="inlineStr">
         <is>
@@ -17541,7 +17541,7 @@
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1199149&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
@@ -17556,7 +17556,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Elaboradora y Embotelladora de Bebidas Analcohólicas (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -17566,16 +17566,16 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>ALIMENTOS FRUNA LTDA.</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F359" t="n">
-        <v>3000</v>
+        <v>72</v>
       </c>
       <c r="G359" t="inlineStr">
         <is>
@@ -17589,7 +17589,7 @@
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1199149&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
@@ -19284,7 +19284,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -19312,12 +19312,12 @@
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I395" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J395" t="inlineStr">
@@ -19332,7 +19332,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -19360,12 +19360,12 @@
       </c>
       <c r="H396" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I396" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J396" t="inlineStr">
@@ -20628,7 +20628,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Construcción de Unidad Deshumificadora de Aceite Lubricante Usado para Mejoramiento de la Calidad del Petroleo Combustible Recuperado</t>
+          <t>Almacenaje y Transporte de Cal (e-seia)</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20638,16 +20638,16 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Portuaria Carranza S.A.</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6165&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45541&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -20676,7 +20676,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Almacenaje y Transporte de Cal (e-seia)</t>
+          <t>Construcción de Unidad Deshumificadora de Aceite Lubricante Usado para Mejoramiento de la Calidad del Petroleo Combustible Recuperado</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -20686,16 +20686,16 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>Portuaria Carranza S.A.</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F424" t="n">
-        <v>177</v>
+        <v>250</v>
       </c>
       <c r="G424" t="inlineStr">
         <is>
@@ -20709,7 +20709,7 @@
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45541&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6165&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">

--- a/data/Maipú.xlsx
+++ b/data/Maipú.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/04/2022</t>
+          <t>22/04/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Óxido de Calcio</t>
+          <t>Planta de Tratamiento de Residuos líquidos que contengan aceites, lubricantes y combustibles usados, residuos de galvanoplastia y otros residuos industriales inorgánicos que no contengan metales pesados SENA - RIL Ltda</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5954,16 +5954,16 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>Sena-Ril Limitada</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>706</v>
+        <v>620</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5972,12 +5972,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7036699&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos líquidos que contengan aceites, lubricantes y combustibles usados, residuos de galvanoplastia y otros residuos industriales inorgánicos que no contengan metales pesados SENA - RIL Ltda</t>
+          <t>Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6002,16 +6002,16 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Sena-Ril Limitada</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>620</v>
+        <v>706</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6020,12 +6020,12 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7036699&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -12914,16 +12914,16 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F262" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -12932,12 +12932,12 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -12962,16 +12962,16 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F263" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
@@ -12980,12 +12980,12 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
@@ -15828,7 +15828,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15843,7 +15843,7 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F323" t="n">
@@ -15856,12 +15856,12 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -15876,7 +15876,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15891,7 +15891,7 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F324" t="n">
@@ -15904,12 +15904,12 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -17508,7 +17508,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Elaboradora y Embotelladora de Bebidas Analcohólicas (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -17518,16 +17518,16 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>ALIMENTOS FRUNA LTDA.</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F358" t="n">
-        <v>3000</v>
+        <v>72</v>
       </c>
       <c r="G358" t="inlineStr">
         <is>
@@ -17541,7 +17541,7 @@
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1199149&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
@@ -17556,7 +17556,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Elaboradora y Embotelladora de Bebidas Analcohólicas (e-seia)</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -17566,16 +17566,16 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>ALIMENTOS FRUNA LTDA.</t>
         </is>
       </c>
       <c r="F359" t="n">
-        <v>72</v>
+        <v>3000</v>
       </c>
       <c r="G359" t="inlineStr">
         <is>
@@ -17589,7 +17589,7 @@
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1199149&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
@@ -19284,7 +19284,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -19312,12 +19312,12 @@
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I395" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J395" t="inlineStr">
@@ -19332,7 +19332,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -19360,12 +19360,12 @@
       </c>
       <c r="H396" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I396" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J396" t="inlineStr">
@@ -20628,7 +20628,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Almacenaje y Transporte de Cal (e-seia)</t>
+          <t>Construcción de Unidad Deshumificadora de Aceite Lubricante Usado para Mejoramiento de la Calidad del Petroleo Combustible Recuperado</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20638,16 +20638,16 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Portuaria Carranza S.A.</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>177</v>
+        <v>250</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45541&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6165&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -20676,7 +20676,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Construcción de Unidad Deshumificadora de Aceite Lubricante Usado para Mejoramiento de la Calidad del Petroleo Combustible Recuperado</t>
+          <t>Almacenaje y Transporte de Cal (e-seia)</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -20686,16 +20686,16 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Portuaria Carranza S.A.</t>
         </is>
       </c>
       <c r="F424" t="n">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="G424" t="inlineStr">
         <is>
@@ -20709,7 +20709,7 @@
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6165&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45541&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">

--- a/data/Maipú.xlsx
+++ b/data/Maipú.xlsx
@@ -692,7 +692,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">

--- a/data/Maipú.xlsx
+++ b/data/Maipú.xlsx
@@ -1639,7 +1639,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria Autopista del Sol S.A</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos líquidos que contengan aceites, lubricantes y combustibles usados, residuos de galvanoplastia y otros residuos industriales inorgánicos que no contengan metales pesados SENA - RIL Ltda</t>
+          <t>Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5954,16 +5954,16 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Sena-Ril Limitada</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>620</v>
+        <v>706</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5972,12 +5972,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7036699&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Óxido de Calcio</t>
+          <t>Planta de Tratamiento de Residuos líquidos que contengan aceites, lubricantes y combustibles usados, residuos de galvanoplastia y otros residuos industriales inorgánicos que no contengan metales pesados SENA - RIL Ltda</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6002,16 +6002,16 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>Sena-Ril Limitada</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>706</v>
+        <v>620</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6020,12 +6020,12 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7036699&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -12914,16 +12914,16 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F262" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -12932,12 +12932,12 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -12962,16 +12962,16 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F263" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
@@ -12980,12 +12980,12 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
@@ -15828,7 +15828,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15843,7 +15843,7 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F323" t="n">
@@ -15856,12 +15856,12 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -15876,7 +15876,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15891,7 +15891,7 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F324" t="n">
@@ -15904,12 +15904,12 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -17508,7 +17508,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Elaboradora y Embotelladora de Bebidas Analcohólicas (e-seia)</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -17518,16 +17518,16 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>ALIMENTOS FRUNA LTDA.</t>
         </is>
       </c>
       <c r="F358" t="n">
-        <v>72</v>
+        <v>3000</v>
       </c>
       <c r="G358" t="inlineStr">
         <is>
@@ -17541,7 +17541,7 @@
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1199149&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
@@ -17556,7 +17556,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Elaboradora y Embotelladora de Bebidas Analcohólicas (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -17566,16 +17566,16 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>ALIMENTOS FRUNA LTDA.</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F359" t="n">
-        <v>3000</v>
+        <v>72</v>
       </c>
       <c r="G359" t="inlineStr">
         <is>
@@ -17589,7 +17589,7 @@
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1199149&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
@@ -19284,7 +19284,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -19312,12 +19312,12 @@
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I395" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J395" t="inlineStr">
@@ -19332,7 +19332,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -19360,12 +19360,12 @@
       </c>
       <c r="H396" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I396" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J396" t="inlineStr">
@@ -20628,7 +20628,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Construcción de Unidad Deshumificadora de Aceite Lubricante Usado para Mejoramiento de la Calidad del Petroleo Combustible Recuperado</t>
+          <t>Almacenaje y Transporte de Cal (e-seia)</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20638,16 +20638,16 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Portuaria Carranza S.A.</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6165&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45541&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -20676,7 +20676,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Almacenaje y Transporte de Cal (e-seia)</t>
+          <t>Construcción de Unidad Deshumificadora de Aceite Lubricante Usado para Mejoramiento de la Calidad del Petroleo Combustible Recuperado</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -20686,16 +20686,16 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>Portuaria Carranza S.A.</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F424" t="n">
-        <v>177</v>
+        <v>250</v>
       </c>
       <c r="G424" t="inlineStr">
         <is>
@@ -20709,7 +20709,7 @@
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45541&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6165&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">

--- a/data/Maipú.xlsx
+++ b/data/Maipú.xlsx
@@ -644,7 +644,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">

--- a/data/Maipú.xlsx
+++ b/data/Maipú.xlsx
@@ -596,7 +596,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">

--- a/data/Maipú.xlsx
+++ b/data/Maipú.xlsx
@@ -1639,7 +1639,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Sociedad Concesionaria Autopista San Antonio-Stgo S.A.</t>
         </is>
       </c>
       <c r="F27" t="n">

--- a/data/Maipú.xlsx
+++ b/data/Maipú.xlsx
@@ -20067,7 +20067,7 @@
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>Cencosud Shopping Centers S.A.</t>
+          <t>CENCOSUD SHOPPING S.A.</t>
         </is>
       </c>
       <c r="F411" t="n">

--- a/data/Maipú.xlsx
+++ b/data/Maipú.xlsx
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Óxido de Calcio</t>
+          <t>Planta de Tratamiento de Residuos líquidos que contengan aceites, lubricantes y combustibles usados, residuos de galvanoplastia y otros residuos industriales inorgánicos que no contengan metales pesados SENA - RIL Ltda</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6002,16 +6002,16 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>Sena-Ril Limitada</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>706</v>
+        <v>620</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6020,12 +6020,12 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7036699&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos líquidos que contengan aceites, lubricantes y combustibles usados, residuos de galvanoplastia y otros residuos industriales inorgánicos que no contengan metales pesados SENA - RIL Ltda</t>
+          <t>Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6050,16 +6050,16 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Sena-Ril Limitada</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>620</v>
+        <v>706</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6068,12 +6068,12 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7036699&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -12962,16 +12962,16 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F263" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
@@ -12980,12 +12980,12 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
@@ -13010,16 +13010,16 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F264" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
@@ -13028,12 +13028,12 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -15876,7 +15876,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15891,7 +15891,7 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F324" t="n">
@@ -15904,12 +15904,12 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -15924,7 +15924,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15939,7 +15939,7 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F325" t="n">
@@ -15952,12 +15952,12 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -17556,7 +17556,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Elaboradora y Embotelladora de Bebidas Analcohólicas (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -17566,16 +17566,16 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>ALIMENTOS FRUNA LTDA.</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F359" t="n">
-        <v>3000</v>
+        <v>72</v>
       </c>
       <c r="G359" t="inlineStr">
         <is>
@@ -17589,7 +17589,7 @@
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1199149&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
@@ -17604,7 +17604,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Elaboradora y Embotelladora de Bebidas Analcohólicas (e-seia)</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -17614,16 +17614,16 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>ALIMENTOS FRUNA LTDA.</t>
         </is>
       </c>
       <c r="F360" t="n">
-        <v>72</v>
+        <v>3000</v>
       </c>
       <c r="G360" t="inlineStr">
         <is>
@@ -17637,7 +17637,7 @@
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1199149&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -19332,7 +19332,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -19360,12 +19360,12 @@
       </c>
       <c r="H396" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I396" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J396" t="inlineStr">
@@ -19380,7 +19380,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -19408,12 +19408,12 @@
       </c>
       <c r="H397" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I397" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J397" t="inlineStr">
@@ -20676,7 +20676,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Almacenaje y Transporte de Cal (e-seia)</t>
+          <t>Construcción de Unidad Deshumificadora de Aceite Lubricante Usado para Mejoramiento de la Calidad del Petroleo Combustible Recuperado</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -20686,16 +20686,16 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>Portuaria Carranza S.A.</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F424" t="n">
-        <v>177</v>
+        <v>250</v>
       </c>
       <c r="G424" t="inlineStr">
         <is>
@@ -20709,7 +20709,7 @@
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45541&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6165&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
@@ -20724,7 +20724,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Construcción de Unidad Deshumificadora de Aceite Lubricante Usado para Mejoramiento de la Calidad del Petroleo Combustible Recuperado</t>
+          <t>Almacenaje y Transporte de Cal (e-seia)</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -20734,16 +20734,16 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Portuaria Carranza S.A.</t>
         </is>
       </c>
       <c r="F425" t="n">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="G425" t="inlineStr">
         <is>
@@ -20757,7 +20757,7 @@
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6165&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45541&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">

--- a/data/Maipú.xlsx
+++ b/data/Maipú.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>02/09/2022</t>
+          <t>09/09/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos líquidos que contengan aceites, lubricantes y combustibles usados, residuos de galvanoplastia y otros residuos industriales inorgánicos que no contengan metales pesados SENA - RIL Ltda</t>
+          <t>Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6002,16 +6002,16 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Sena-Ril Limitada</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>620</v>
+        <v>706</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6020,12 +6020,12 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7036699&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Óxido de Calcio</t>
+          <t>Planta de Tratamiento de Residuos líquidos que contengan aceites, lubricantes y combustibles usados, residuos de galvanoplastia y otros residuos industriales inorgánicos que no contengan metales pesados SENA - RIL Ltda</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6050,16 +6050,16 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>Sena-Ril Limitada</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>706</v>
+        <v>620</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6068,12 +6068,12 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7036699&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -12962,16 +12962,16 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F263" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
@@ -12980,12 +12980,12 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
@@ -13010,16 +13010,16 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F264" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
@@ -13028,12 +13028,12 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -15876,7 +15876,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15891,7 +15891,7 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F324" t="n">
@@ -15904,12 +15904,12 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -15924,7 +15924,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15939,7 +15939,7 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F325" t="n">
@@ -15952,12 +15952,12 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -17556,7 +17556,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Elaboradora y Embotelladora de Bebidas Analcohólicas (e-seia)</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -17566,16 +17566,16 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>ALIMENTOS FRUNA LTDA.</t>
         </is>
       </c>
       <c r="F359" t="n">
-        <v>72</v>
+        <v>3000</v>
       </c>
       <c r="G359" t="inlineStr">
         <is>
@@ -17589,7 +17589,7 @@
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1199149&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
@@ -17604,7 +17604,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Elaboradora y Embotelladora de Bebidas Analcohólicas (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -17614,16 +17614,16 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>ALIMENTOS FRUNA LTDA.</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F360" t="n">
-        <v>3000</v>
+        <v>72</v>
       </c>
       <c r="G360" t="inlineStr">
         <is>
@@ -17637,7 +17637,7 @@
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1199149&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -19332,7 +19332,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -19360,12 +19360,12 @@
       </c>
       <c r="H396" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I396" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J396" t="inlineStr">
@@ -19380,7 +19380,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -19408,12 +19408,12 @@
       </c>
       <c r="H397" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I397" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J397" t="inlineStr">
@@ -20676,7 +20676,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Construcción de Unidad Deshumificadora de Aceite Lubricante Usado para Mejoramiento de la Calidad del Petroleo Combustible Recuperado</t>
+          <t>Almacenaje y Transporte de Cal (e-seia)</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -20686,16 +20686,16 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Portuaria Carranza S.A.</t>
         </is>
       </c>
       <c r="F424" t="n">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="G424" t="inlineStr">
         <is>
@@ -20709,7 +20709,7 @@
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6165&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45541&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
@@ -20724,7 +20724,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Almacenaje y Transporte de Cal (e-seia)</t>
+          <t>Construcción de Unidad Deshumificadora de Aceite Lubricante Usado para Mejoramiento de la Calidad del Petroleo Combustible Recuperado</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -20734,16 +20734,16 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>Portuaria Carranza S.A.</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F425" t="n">
-        <v>177</v>
+        <v>250</v>
       </c>
       <c r="G425" t="inlineStr">
         <is>
@@ -20757,7 +20757,7 @@
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45541&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6165&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">

--- a/data/Maipú.xlsx
+++ b/data/Maipú.xlsx
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos líquidos que contengan aceites, lubricantes y combustibles usados, residuos de galvanoplastia y otros residuos industriales inorgánicos que no contengan metales pesados SENA - RIL Ltda</t>
+          <t>Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6002,16 +6002,16 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Sena-Ril Limitada</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>620</v>
+        <v>706</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6020,12 +6020,12 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7036699&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Óxido de Calcio</t>
+          <t>Planta de Tratamiento de Residuos líquidos que contengan aceites, lubricantes y combustibles usados, residuos de galvanoplastia y otros residuos industriales inorgánicos que no contengan metales pesados SENA - RIL Ltda</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6050,16 +6050,16 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>Sena-Ril Limitada</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>706</v>
+        <v>620</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6068,12 +6068,12 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7036699&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -12962,16 +12962,16 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F263" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
@@ -12980,12 +12980,12 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
@@ -13010,16 +13010,16 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F264" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
@@ -13028,12 +13028,12 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -15876,7 +15876,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15891,7 +15891,7 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F324" t="n">
@@ -15904,12 +15904,12 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -15924,7 +15924,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15939,7 +15939,7 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F325" t="n">
@@ -15952,12 +15952,12 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -17556,7 +17556,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Elaboradora y Embotelladora de Bebidas Analcohólicas (e-seia)</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -17566,16 +17566,16 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>ALIMENTOS FRUNA LTDA.</t>
         </is>
       </c>
       <c r="F359" t="n">
-        <v>72</v>
+        <v>3000</v>
       </c>
       <c r="G359" t="inlineStr">
         <is>
@@ -17589,7 +17589,7 @@
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1199149&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
@@ -17604,7 +17604,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Elaboradora y Embotelladora de Bebidas Analcohólicas (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -17614,16 +17614,16 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>ALIMENTOS FRUNA LTDA.</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F360" t="n">
-        <v>3000</v>
+        <v>72</v>
       </c>
       <c r="G360" t="inlineStr">
         <is>
@@ -17637,7 +17637,7 @@
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1199149&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -19332,7 +19332,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -19360,12 +19360,12 @@
       </c>
       <c r="H396" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I396" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J396" t="inlineStr">
@@ -19380,7 +19380,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -19408,12 +19408,12 @@
       </c>
       <c r="H397" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I397" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J397" t="inlineStr">
@@ -20676,7 +20676,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Construcción de Unidad Deshumificadora de Aceite Lubricante Usado para Mejoramiento de la Calidad del Petroleo Combustible Recuperado</t>
+          <t>Almacenaje y Transporte de Cal (e-seia)</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -20686,16 +20686,16 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Portuaria Carranza S.A.</t>
         </is>
       </c>
       <c r="F424" t="n">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="G424" t="inlineStr">
         <is>
@@ -20709,7 +20709,7 @@
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6165&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45541&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
@@ -20724,7 +20724,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Almacenaje y Transporte de Cal (e-seia)</t>
+          <t>Construcción de Unidad Deshumificadora de Aceite Lubricante Usado para Mejoramiento de la Calidad del Petroleo Combustible Recuperado</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -20734,16 +20734,16 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>Portuaria Carranza S.A.</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F425" t="n">
-        <v>177</v>
+        <v>250</v>
       </c>
       <c r="G425" t="inlineStr">
         <is>
@@ -20757,7 +20757,7 @@
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45541&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6165&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">

--- a/data/Maipú.xlsx
+++ b/data/Maipú.xlsx
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos líquidos que contengan aceites, lubricantes y combustibles usados, residuos de galvanoplastia y otros residuos industriales inorgánicos que no contengan metales pesados SENA - RIL Ltda</t>
+          <t>Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6050,16 +6050,16 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Sena-Ril Limitada</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>620</v>
+        <v>706</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6068,12 +6068,12 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7036699&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Óxido de Calcio</t>
+          <t>Planta de Tratamiento de Residuos líquidos que contengan aceites, lubricantes y combustibles usados, residuos de galvanoplastia y otros residuos industriales inorgánicos que no contengan metales pesados SENA - RIL Ltda</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6098,16 +6098,16 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>Sena-Ril Limitada</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>706</v>
+        <v>620</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6116,12 +6116,12 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7036699&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -13010,16 +13010,16 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F264" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
@@ -13028,12 +13028,12 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -13058,16 +13058,16 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F265" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
@@ -13076,12 +13076,12 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -15924,7 +15924,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15939,7 +15939,7 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F325" t="n">
@@ -15952,12 +15952,12 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -15972,7 +15972,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15987,7 +15987,7 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F326" t="n">
@@ -16000,12 +16000,12 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -17604,7 +17604,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Elaboradora y Embotelladora de Bebidas Analcohólicas (e-seia)</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -17614,16 +17614,16 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>ALIMENTOS FRUNA LTDA.</t>
         </is>
       </c>
       <c r="F360" t="n">
-        <v>72</v>
+        <v>3000</v>
       </c>
       <c r="G360" t="inlineStr">
         <is>
@@ -17637,7 +17637,7 @@
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1199149&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -17652,7 +17652,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Elaboradora y Embotelladora de Bebidas Analcohólicas (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -17662,16 +17662,16 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>ALIMENTOS FRUNA LTDA.</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F361" t="n">
-        <v>3000</v>
+        <v>72</v>
       </c>
       <c r="G361" t="inlineStr">
         <is>
@@ -17685,7 +17685,7 @@
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1199149&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
@@ -19380,7 +19380,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -19408,12 +19408,12 @@
       </c>
       <c r="H397" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I397" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J397" t="inlineStr">
@@ -19428,7 +19428,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -19456,12 +19456,12 @@
       </c>
       <c r="H398" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I398" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J398" t="inlineStr">
@@ -20724,7 +20724,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Construcción de Unidad Deshumificadora de Aceite Lubricante Usado para Mejoramiento de la Calidad del Petroleo Combustible Recuperado</t>
+          <t>Almacenaje y Transporte de Cal (e-seia)</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -20734,16 +20734,16 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Portuaria Carranza S.A.</t>
         </is>
       </c>
       <c r="F425" t="n">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="G425" t="inlineStr">
         <is>
@@ -20757,7 +20757,7 @@
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6165&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45541&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
@@ -20772,7 +20772,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Almacenaje y Transporte de Cal (e-seia)</t>
+          <t>Construcción de Unidad Deshumificadora de Aceite Lubricante Usado para Mejoramiento de la Calidad del Petroleo Combustible Recuperado</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -20782,16 +20782,16 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>Portuaria Carranza S.A.</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F426" t="n">
-        <v>177</v>
+        <v>250</v>
       </c>
       <c r="G426" t="inlineStr">
         <is>
@@ -20805,7 +20805,7 @@
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45541&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6165&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">

--- a/data/Maipú.xlsx
+++ b/data/Maipú.xlsx
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Óxido de Calcio</t>
+          <t>Planta de Tratamiento de Residuos líquidos que contengan aceites, lubricantes y combustibles usados, residuos de galvanoplastia y otros residuos industriales inorgánicos que no contengan metales pesados SENA - RIL Ltda</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6050,16 +6050,16 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>Sena-Ril Limitada</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>706</v>
+        <v>620</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6068,12 +6068,12 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7036699&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos líquidos que contengan aceites, lubricantes y combustibles usados, residuos de galvanoplastia y otros residuos industriales inorgánicos que no contengan metales pesados SENA - RIL Ltda</t>
+          <t>Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6098,16 +6098,16 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Sena-Ril Limitada</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>620</v>
+        <v>706</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6116,12 +6116,12 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7036699&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -13010,16 +13010,16 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F264" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
@@ -13028,12 +13028,12 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -13058,16 +13058,16 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F265" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
@@ -13076,12 +13076,12 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -15924,7 +15924,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15939,7 +15939,7 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F325" t="n">
@@ -15952,12 +15952,12 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -15972,7 +15972,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15987,7 +15987,7 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F326" t="n">
@@ -16000,12 +16000,12 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -17604,7 +17604,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Elaboradora y Embotelladora de Bebidas Analcohólicas (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -17614,16 +17614,16 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>ALIMENTOS FRUNA LTDA.</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F360" t="n">
-        <v>3000</v>
+        <v>72</v>
       </c>
       <c r="G360" t="inlineStr">
         <is>
@@ -17637,7 +17637,7 @@
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1199149&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -17652,7 +17652,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Elaboradora y Embotelladora de Bebidas Analcohólicas (e-seia)</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -17662,16 +17662,16 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>ALIMENTOS FRUNA LTDA.</t>
         </is>
       </c>
       <c r="F361" t="n">
-        <v>72</v>
+        <v>3000</v>
       </c>
       <c r="G361" t="inlineStr">
         <is>
@@ -17685,7 +17685,7 @@
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1199149&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
@@ -19380,7 +19380,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -19408,12 +19408,12 @@
       </c>
       <c r="H397" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I397" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J397" t="inlineStr">
@@ -19428,7 +19428,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -19456,12 +19456,12 @@
       </c>
       <c r="H398" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I398" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J398" t="inlineStr">
@@ -20724,7 +20724,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Almacenaje y Transporte de Cal (e-seia)</t>
+          <t>Construcción de Unidad Deshumificadora de Aceite Lubricante Usado para Mejoramiento de la Calidad del Petroleo Combustible Recuperado</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -20734,16 +20734,16 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>Portuaria Carranza S.A.</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F425" t="n">
-        <v>177</v>
+        <v>250</v>
       </c>
       <c r="G425" t="inlineStr">
         <is>
@@ -20757,7 +20757,7 @@
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45541&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6165&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
@@ -20772,7 +20772,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Construcción de Unidad Deshumificadora de Aceite Lubricante Usado para Mejoramiento de la Calidad del Petroleo Combustible Recuperado</t>
+          <t>Almacenaje y Transporte de Cal (e-seia)</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -20782,16 +20782,16 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Portuaria Carranza S.A.</t>
         </is>
       </c>
       <c r="F426" t="n">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="G426" t="inlineStr">
         <is>
@@ -20805,7 +20805,7 @@
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6165&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45541&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">

--- a/data/Maipú.xlsx
+++ b/data/Maipú.xlsx
@@ -836,7 +836,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">

--- a/data/Maipú.xlsx
+++ b/data/Maipú.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>21/09/2022</t>
+          <t>18/11/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Maipú.xlsx
+++ b/data/Maipú.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/11/2022</t>
+          <t>21/10/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos líquidos que contengan aceites, lubricantes y combustibles usados, residuos de galvanoplastia y otros residuos industriales inorgánicos que no contengan metales pesados SENA - RIL Ltda</t>
+          <t>Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6050,16 +6050,16 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Sena-Ril Limitada</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>620</v>
+        <v>706</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6068,12 +6068,12 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7036699&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Óxido de Calcio</t>
+          <t>Planta de Tratamiento de Residuos líquidos que contengan aceites, lubricantes y combustibles usados, residuos de galvanoplastia y otros residuos industriales inorgánicos que no contengan metales pesados SENA - RIL Ltda</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6098,16 +6098,16 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>Sena-Ril Limitada</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>706</v>
+        <v>620</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6116,12 +6116,12 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7036699&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -13010,16 +13010,16 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F264" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
@@ -13028,12 +13028,12 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -13058,16 +13058,16 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F265" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
@@ -13076,12 +13076,12 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -15924,7 +15924,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15939,7 +15939,7 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F325" t="n">
@@ -15952,12 +15952,12 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -15972,7 +15972,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15987,7 +15987,7 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F326" t="n">
@@ -16000,12 +16000,12 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -17604,7 +17604,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Elaboradora y Embotelladora de Bebidas Analcohólicas (e-seia)</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -17614,16 +17614,16 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>ALIMENTOS FRUNA LTDA.</t>
         </is>
       </c>
       <c r="F360" t="n">
-        <v>72</v>
+        <v>3000</v>
       </c>
       <c r="G360" t="inlineStr">
         <is>
@@ -17637,7 +17637,7 @@
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1199149&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -17652,7 +17652,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Elaboradora y Embotelladora de Bebidas Analcohólicas (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -17662,16 +17662,16 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>ALIMENTOS FRUNA LTDA.</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F361" t="n">
-        <v>3000</v>
+        <v>72</v>
       </c>
       <c r="G361" t="inlineStr">
         <is>
@@ -17685,7 +17685,7 @@
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1199149&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
@@ -19380,7 +19380,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -19408,12 +19408,12 @@
       </c>
       <c r="H397" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I397" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J397" t="inlineStr">
@@ -19428,7 +19428,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -19456,12 +19456,12 @@
       </c>
       <c r="H398" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I398" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J398" t="inlineStr">
@@ -20724,7 +20724,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Construcción de Unidad Deshumificadora de Aceite Lubricante Usado para Mejoramiento de la Calidad del Petroleo Combustible Recuperado</t>
+          <t>Almacenaje y Transporte de Cal (e-seia)</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -20734,16 +20734,16 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Portuaria Carranza S.A.</t>
         </is>
       </c>
       <c r="F425" t="n">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="G425" t="inlineStr">
         <is>
@@ -20757,7 +20757,7 @@
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6165&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45541&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
@@ -20772,7 +20772,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Almacenaje y Transporte de Cal (e-seia)</t>
+          <t>Construcción de Unidad Deshumificadora de Aceite Lubricante Usado para Mejoramiento de la Calidad del Petroleo Combustible Recuperado</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -20782,16 +20782,16 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>Portuaria Carranza S.A.</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F426" t="n">
-        <v>177</v>
+        <v>250</v>
       </c>
       <c r="G426" t="inlineStr">
         <is>
@@ -20805,7 +20805,7 @@
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45541&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6165&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">

--- a/data/Maipú.xlsx
+++ b/data/Maipú.xlsx
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos líquidos que contengan aceites, lubricantes y combustibles usados, residuos de galvanoplastia y otros residuos industriales inorgánicos que no contengan metales pesados SENA - RIL Ltda</t>
+          <t>Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6050,16 +6050,16 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Sena-Ril Limitada</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>620</v>
+        <v>706</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6068,12 +6068,12 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7036699&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Óxido de Calcio</t>
+          <t>Planta de Tratamiento de Residuos líquidos que contengan aceites, lubricantes y combustibles usados, residuos de galvanoplastia y otros residuos industriales inorgánicos que no contengan metales pesados SENA - RIL Ltda</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6098,16 +6098,16 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>Sena-Ril Limitada</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>706</v>
+        <v>620</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6116,12 +6116,12 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7036699&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -11575,7 +11575,7 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>CGE Transmisión S.A.</t>
         </is>
       </c>
       <c r="F234" t="n">
@@ -13010,16 +13010,16 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F264" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
@@ -13028,12 +13028,12 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -13058,16 +13058,16 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F265" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
@@ -13076,12 +13076,12 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -15924,7 +15924,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15939,7 +15939,7 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F325" t="n">
@@ -15952,12 +15952,12 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -15972,7 +15972,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15987,7 +15987,7 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F326" t="n">
@@ -16000,12 +16000,12 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -17604,7 +17604,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Elaboradora y Embotelladora de Bebidas Analcohólicas (e-seia)</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -17614,16 +17614,16 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>ALIMENTOS FRUNA LTDA.</t>
         </is>
       </c>
       <c r="F360" t="n">
-        <v>72</v>
+        <v>3000</v>
       </c>
       <c r="G360" t="inlineStr">
         <is>
@@ -17637,7 +17637,7 @@
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1199149&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -17652,7 +17652,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Elaboradora y Embotelladora de Bebidas Analcohólicas (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -17662,16 +17662,16 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>ALIMENTOS FRUNA LTDA.</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F361" t="n">
-        <v>3000</v>
+        <v>72</v>
       </c>
       <c r="G361" t="inlineStr">
         <is>
@@ -17685,7 +17685,7 @@
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1199149&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
@@ -19380,7 +19380,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -19408,12 +19408,12 @@
       </c>
       <c r="H397" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I397" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J397" t="inlineStr">
@@ -19428,7 +19428,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -19456,12 +19456,12 @@
       </c>
       <c r="H398" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I398" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J398" t="inlineStr">
@@ -20724,7 +20724,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Construcción de Unidad Deshumificadora de Aceite Lubricante Usado para Mejoramiento de la Calidad del Petroleo Combustible Recuperado</t>
+          <t>Almacenaje y Transporte de Cal (e-seia)</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -20734,16 +20734,16 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Portuaria Carranza S.A.</t>
         </is>
       </c>
       <c r="F425" t="n">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="G425" t="inlineStr">
         <is>
@@ -20757,7 +20757,7 @@
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6165&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45541&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
@@ -20772,7 +20772,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Almacenaje y Transporte de Cal (e-seia)</t>
+          <t>Construcción de Unidad Deshumificadora de Aceite Lubricante Usado para Mejoramiento de la Calidad del Petroleo Combustible Recuperado</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -20782,16 +20782,16 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>Portuaria Carranza S.A.</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F426" t="n">
-        <v>177</v>
+        <v>250</v>
       </c>
       <c r="G426" t="inlineStr">
         <is>
@@ -20805,7 +20805,7 @@
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45541&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6165&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">

--- a/data/Maipú.xlsx
+++ b/data/Maipú.xlsx
@@ -644,7 +644,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">

--- a/data/Maipú.xlsx
+++ b/data/Maipú.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos líquidos que contengan aceites, lubricantes y combustibles usados, residuos de galvanoplastia y otros residuos industriales inorgánicos que no contengan metales pesados SENA - RIL Ltda</t>
+          <t>Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6050,16 +6050,16 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Sena-Ril Limitada</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>620</v>
+        <v>706</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6068,12 +6068,12 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7036699&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Óxido de Calcio</t>
+          <t>Planta de Tratamiento de Residuos líquidos que contengan aceites, lubricantes y combustibles usados, residuos de galvanoplastia y otros residuos industriales inorgánicos que no contengan metales pesados SENA - RIL Ltda</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6098,16 +6098,16 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>Sena-Ril Limitada</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>706</v>
+        <v>620</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6116,12 +6116,12 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7036699&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -13010,16 +13010,16 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F264" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
@@ -13028,12 +13028,12 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -13058,16 +13058,16 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F265" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
@@ -13076,12 +13076,12 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -15924,7 +15924,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15939,7 +15939,7 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F325" t="n">
@@ -15952,12 +15952,12 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -15972,7 +15972,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15987,7 +15987,7 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F326" t="n">
@@ -16000,12 +16000,12 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -17604,7 +17604,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Elaboradora y Embotelladora de Bebidas Analcohólicas (e-seia)</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -17614,16 +17614,16 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>ALIMENTOS FRUNA LTDA.</t>
         </is>
       </c>
       <c r="F360" t="n">
-        <v>72</v>
+        <v>3000</v>
       </c>
       <c r="G360" t="inlineStr">
         <is>
@@ -17637,7 +17637,7 @@
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1199149&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -17652,7 +17652,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Elaboradora y Embotelladora de Bebidas Analcohólicas (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -17662,16 +17662,16 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>ALIMENTOS FRUNA LTDA.</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F361" t="n">
-        <v>3000</v>
+        <v>72</v>
       </c>
       <c r="G361" t="inlineStr">
         <is>
@@ -17685,7 +17685,7 @@
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1199149&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
@@ -19380,7 +19380,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -19408,12 +19408,12 @@
       </c>
       <c r="H397" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I397" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J397" t="inlineStr">
@@ -19428,7 +19428,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -19456,12 +19456,12 @@
       </c>
       <c r="H398" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I398" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J398" t="inlineStr">
@@ -20724,7 +20724,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Construcción de Unidad Deshumificadora de Aceite Lubricante Usado para Mejoramiento de la Calidad del Petroleo Combustible Recuperado</t>
+          <t>Almacenaje y Transporte de Cal (e-seia)</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -20734,16 +20734,16 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Portuaria Carranza S.A.</t>
         </is>
       </c>
       <c r="F425" t="n">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="G425" t="inlineStr">
         <is>
@@ -20757,7 +20757,7 @@
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6165&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45541&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
@@ -20772,7 +20772,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Almacenaje y Transporte de Cal (e-seia)</t>
+          <t>Construcción de Unidad Deshumificadora de Aceite Lubricante Usado para Mejoramiento de la Calidad del Petroleo Combustible Recuperado</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -20782,16 +20782,16 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>Portuaria Carranza S.A.</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F426" t="n">
-        <v>177</v>
+        <v>250</v>
       </c>
       <c r="G426" t="inlineStr">
         <is>
@@ -20805,7 +20805,7 @@
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45541&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6165&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">

--- a/data/Maipú.xlsx
+++ b/data/Maipú.xlsx
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Óxido de Calcio</t>
+          <t>Planta de Tratamiento de Residuos líquidos que contengan aceites, lubricantes y combustibles usados, residuos de galvanoplastia y otros residuos industriales inorgánicos que no contengan metales pesados SENA - RIL Ltda</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6050,16 +6050,16 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>Sena-Ril Limitada</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>706</v>
+        <v>620</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6068,12 +6068,12 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7036699&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos líquidos que contengan aceites, lubricantes y combustibles usados, residuos de galvanoplastia y otros residuos industriales inorgánicos que no contengan metales pesados SENA - RIL Ltda</t>
+          <t>Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6098,16 +6098,16 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Sena-Ril Limitada</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>620</v>
+        <v>706</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6116,12 +6116,12 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7036699&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -8407,7 +8407,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Enel Distribución Chile S.A.</t>
+          <t>Sociedad Transmisora Metropolitana II S.A.</t>
         </is>
       </c>
       <c r="F168" t="n">
@@ -13010,16 +13010,16 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F264" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
@@ -13028,12 +13028,12 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -13058,16 +13058,16 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F265" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
@@ -13076,12 +13076,12 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -15603,7 +15603,7 @@
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Enel Distribución Chile S.A.</t>
+          <t>Sociedad Transmisora Metropolitana II S.A.</t>
         </is>
       </c>
       <c r="F318" t="n">
@@ -15924,7 +15924,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15939,7 +15939,7 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F325" t="n">
@@ -15952,12 +15952,12 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -15972,7 +15972,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15987,7 +15987,7 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F326" t="n">
@@ -16000,12 +16000,12 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -17604,7 +17604,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Elaboradora y Embotelladora de Bebidas Analcohólicas (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -17614,16 +17614,16 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>ALIMENTOS FRUNA LTDA.</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F360" t="n">
-        <v>3000</v>
+        <v>72</v>
       </c>
       <c r="G360" t="inlineStr">
         <is>
@@ -17637,7 +17637,7 @@
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1199149&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -17652,7 +17652,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Elaboradora y Embotelladora de Bebidas Analcohólicas (e-seia)</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -17662,16 +17662,16 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>ALIMENTOS FRUNA LTDA.</t>
         </is>
       </c>
       <c r="F361" t="n">
-        <v>72</v>
+        <v>3000</v>
       </c>
       <c r="G361" t="inlineStr">
         <is>
@@ -17685,7 +17685,7 @@
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1199149&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
@@ -19203,7 +19203,7 @@
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>Enel Distribución Chile S.A.</t>
+          <t>Sociedad Transmisora Metropolitana II S.A.</t>
         </is>
       </c>
       <c r="F393" t="n">
@@ -19380,7 +19380,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -19408,12 +19408,12 @@
       </c>
       <c r="H397" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I397" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J397" t="inlineStr">
@@ -19428,7 +19428,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -19456,12 +19456,12 @@
       </c>
       <c r="H398" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I398" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J398" t="inlineStr">
@@ -20724,7 +20724,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Almacenaje y Transporte de Cal (e-seia)</t>
+          <t>Construcción de Unidad Deshumificadora de Aceite Lubricante Usado para Mejoramiento de la Calidad del Petroleo Combustible Recuperado</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -20734,16 +20734,16 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>Portuaria Carranza S.A.</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F425" t="n">
-        <v>177</v>
+        <v>250</v>
       </c>
       <c r="G425" t="inlineStr">
         <is>
@@ -20757,7 +20757,7 @@
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45541&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6165&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
@@ -20772,7 +20772,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Construcción de Unidad Deshumificadora de Aceite Lubricante Usado para Mejoramiento de la Calidad del Petroleo Combustible Recuperado</t>
+          <t>Almacenaje y Transporte de Cal (e-seia)</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -20782,16 +20782,16 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Portuaria Carranza S.A.</t>
         </is>
       </c>
       <c r="F426" t="n">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="G426" t="inlineStr">
         <is>
@@ -20805,7 +20805,7 @@
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6165&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45541&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
@@ -21027,7 +21027,7 @@
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>Enel Distribución Chile S.A.</t>
+          <t>Sociedad Transmisora Metropolitana II S.A.</t>
         </is>
       </c>
       <c r="F431" t="n">
@@ -24291,7 +24291,7 @@
       </c>
       <c r="E499" t="inlineStr">
         <is>
-          <t>Enel Distribución Chile S.A.</t>
+          <t>Sociedad Transmisora Metropolitana II S.A.</t>
         </is>
       </c>
       <c r="F499" t="n">

--- a/data/Maipú.xlsx
+++ b/data/Maipú.xlsx
@@ -14023,7 +14023,7 @@
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>gasmar s.a.</t>
+          <t>Gasmar SpA.</t>
         </is>
       </c>
       <c r="F285" t="n">

--- a/data/Maipú.xlsx
+++ b/data/Maipú.xlsx
@@ -548,7 +548,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Óxido de Calcio</t>
+          <t>Planta de Tratamiento de Residuos líquidos que contengan aceites, lubricantes y combustibles usados, residuos de galvanoplastia y otros residuos industriales inorgánicos que no contengan metales pesados SENA - RIL Ltda</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6050,16 +6050,16 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>Sena-Ril Limitada</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>706</v>
+        <v>620</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6068,12 +6068,12 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7036699&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos líquidos que contengan aceites, lubricantes y combustibles usados, residuos de galvanoplastia y otros residuos industriales inorgánicos que no contengan metales pesados SENA - RIL Ltda</t>
+          <t>Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6098,16 +6098,16 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Sena-Ril Limitada</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>620</v>
+        <v>706</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6116,12 +6116,12 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7036699&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -13010,16 +13010,16 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F264" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
@@ -13028,12 +13028,12 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -13058,16 +13058,16 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F265" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
@@ -13076,12 +13076,12 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -15924,7 +15924,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15939,7 +15939,7 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F325" t="n">
@@ -15952,12 +15952,12 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -15972,7 +15972,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15987,7 +15987,7 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F326" t="n">
@@ -16000,12 +16000,12 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -17604,7 +17604,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Elaboradora y Embotelladora de Bebidas Analcohólicas (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -17614,16 +17614,16 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>ALIMENTOS FRUNA LTDA.</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F360" t="n">
-        <v>3000</v>
+        <v>72</v>
       </c>
       <c r="G360" t="inlineStr">
         <is>
@@ -17637,7 +17637,7 @@
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1199149&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -17652,7 +17652,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Elaboradora y Embotelladora de Bebidas Analcohólicas (e-seia)</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -17662,16 +17662,16 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>ALIMENTOS FRUNA LTDA.</t>
         </is>
       </c>
       <c r="F361" t="n">
-        <v>72</v>
+        <v>3000</v>
       </c>
       <c r="G361" t="inlineStr">
         <is>
@@ -17685,7 +17685,7 @@
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1199149&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
@@ -19380,7 +19380,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -19408,12 +19408,12 @@
       </c>
       <c r="H397" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I397" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J397" t="inlineStr">
@@ -19428,7 +19428,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -19456,12 +19456,12 @@
       </c>
       <c r="H398" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I398" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J398" t="inlineStr">
@@ -20724,7 +20724,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Almacenaje y Transporte de Cal (e-seia)</t>
+          <t>Construcción de Unidad Deshumificadora de Aceite Lubricante Usado para Mejoramiento de la Calidad del Petroleo Combustible Recuperado</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -20734,16 +20734,16 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>Portuaria Carranza S.A.</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F425" t="n">
-        <v>177</v>
+        <v>250</v>
       </c>
       <c r="G425" t="inlineStr">
         <is>
@@ -20757,7 +20757,7 @@
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45541&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6165&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
@@ -20772,7 +20772,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Construcción de Unidad Deshumificadora de Aceite Lubricante Usado para Mejoramiento de la Calidad del Petroleo Combustible Recuperado</t>
+          <t>Almacenaje y Transporte de Cal (e-seia)</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -20782,16 +20782,16 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Portuaria Carranza S.A.</t>
         </is>
       </c>
       <c r="F426" t="n">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="G426" t="inlineStr">
         <is>
@@ -20805,7 +20805,7 @@
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6165&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45541&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">

--- a/data/Maipú.xlsx
+++ b/data/Maipú.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/04/2023</t>
+          <t>18/05/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Maipú.xlsx
+++ b/data/Maipú.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/05/2023</t>
+          <t>20/04/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Maipú.xlsx
+++ b/data/Maipú.xlsx
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Óxido de Calcio</t>
+          <t>Planta de Tratamiento de Residuos líquidos que contengan aceites, lubricantes y combustibles usados, residuos de galvanoplastia y otros residuos industriales inorgánicos que no contengan metales pesados SENA - RIL Ltda</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6098,16 +6098,16 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>Sena-Ril Limitada</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>706</v>
+        <v>620</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6116,12 +6116,12 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7036699&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos líquidos que contengan aceites, lubricantes y combustibles usados, residuos de galvanoplastia y otros residuos industriales inorgánicos que no contengan metales pesados SENA - RIL Ltda</t>
+          <t>Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6146,16 +6146,16 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Sena-Ril Limitada</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>620</v>
+        <v>706</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6164,12 +6164,12 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7036699&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -13058,16 +13058,16 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F265" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
@@ -13076,12 +13076,12 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -13106,16 +13106,16 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F266" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -13124,12 +13124,12 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -15972,7 +15972,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15987,7 +15987,7 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F326" t="n">
@@ -16000,12 +16000,12 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -16020,7 +16020,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16035,7 +16035,7 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F327" t="n">
@@ -16048,12 +16048,12 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -17652,7 +17652,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Elaboradora y Embotelladora de Bebidas Analcohólicas (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -17662,16 +17662,16 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>ALIMENTOS FRUNA LTDA.</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F361" t="n">
-        <v>3000</v>
+        <v>72</v>
       </c>
       <c r="G361" t="inlineStr">
         <is>
@@ -17685,7 +17685,7 @@
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1199149&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
@@ -17700,7 +17700,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Elaboradora y Embotelladora de Bebidas Analcohólicas (e-seia)</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -17710,16 +17710,16 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>ALIMENTOS FRUNA LTDA.</t>
         </is>
       </c>
       <c r="F362" t="n">
-        <v>72</v>
+        <v>3000</v>
       </c>
       <c r="G362" t="inlineStr">
         <is>
@@ -17733,7 +17733,7 @@
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1199149&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
@@ -19428,7 +19428,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -19456,12 +19456,12 @@
       </c>
       <c r="H398" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I398" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J398" t="inlineStr">
@@ -19476,7 +19476,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -19504,12 +19504,12 @@
       </c>
       <c r="H399" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I399" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J399" t="inlineStr">
@@ -20772,7 +20772,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Almacenaje y Transporte de Cal (e-seia)</t>
+          <t>Construcción de Unidad Deshumificadora de Aceite Lubricante Usado para Mejoramiento de la Calidad del Petroleo Combustible Recuperado</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -20782,16 +20782,16 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>Portuaria Carranza S.A.</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F426" t="n">
-        <v>177</v>
+        <v>250</v>
       </c>
       <c r="G426" t="inlineStr">
         <is>
@@ -20805,7 +20805,7 @@
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45541&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6165&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
@@ -20820,7 +20820,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Construcción de Unidad Deshumificadora de Aceite Lubricante Usado para Mejoramiento de la Calidad del Petroleo Combustible Recuperado</t>
+          <t>Almacenaje y Transporte de Cal (e-seia)</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -20830,16 +20830,16 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Portuaria Carranza S.A.</t>
         </is>
       </c>
       <c r="F427" t="n">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="G427" t="inlineStr">
         <is>
@@ -20853,7 +20853,7 @@
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6165&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45541&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">

--- a/data/Maipú.xlsx
+++ b/data/Maipú.xlsx
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos líquidos que contengan aceites, lubricantes y combustibles usados, residuos de galvanoplastia y otros residuos industriales inorgánicos que no contengan metales pesados SENA - RIL Ltda</t>
+          <t>Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6098,16 +6098,16 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Sena-Ril Limitada</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>620</v>
+        <v>706</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6116,12 +6116,12 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7036699&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Óxido de Calcio</t>
+          <t>Planta de Tratamiento de Residuos líquidos que contengan aceites, lubricantes y combustibles usados, residuos de galvanoplastia y otros residuos industriales inorgánicos que no contengan metales pesados SENA - RIL Ltda</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6146,16 +6146,16 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>Sena-Ril Limitada</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>706</v>
+        <v>620</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6164,12 +6164,12 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7036699&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -13058,16 +13058,16 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F265" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
@@ -13076,12 +13076,12 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -13106,16 +13106,16 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F266" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -13124,12 +13124,12 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -15972,7 +15972,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15987,7 +15987,7 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F326" t="n">
@@ -16000,12 +16000,12 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -16020,7 +16020,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16035,7 +16035,7 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F327" t="n">
@@ -16048,12 +16048,12 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -17652,7 +17652,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Elaboradora y Embotelladora de Bebidas Analcohólicas (e-seia)</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -17662,16 +17662,16 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>ALIMENTOS FRUNA LTDA.</t>
         </is>
       </c>
       <c r="F361" t="n">
-        <v>72</v>
+        <v>3000</v>
       </c>
       <c r="G361" t="inlineStr">
         <is>
@@ -17685,7 +17685,7 @@
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1199149&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
@@ -17700,7 +17700,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Elaboradora y Embotelladora de Bebidas Analcohólicas (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -17710,16 +17710,16 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>ALIMENTOS FRUNA LTDA.</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F362" t="n">
-        <v>3000</v>
+        <v>72</v>
       </c>
       <c r="G362" t="inlineStr">
         <is>
@@ -17733,7 +17733,7 @@
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1199149&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
@@ -19428,7 +19428,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -19456,12 +19456,12 @@
       </c>
       <c r="H398" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I398" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J398" t="inlineStr">
@@ -19476,7 +19476,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -19504,12 +19504,12 @@
       </c>
       <c r="H399" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I399" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J399" t="inlineStr">
@@ -20772,7 +20772,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Construcción de Unidad Deshumificadora de Aceite Lubricante Usado para Mejoramiento de la Calidad del Petroleo Combustible Recuperado</t>
+          <t>Almacenaje y Transporte de Cal (e-seia)</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -20782,16 +20782,16 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Portuaria Carranza S.A.</t>
         </is>
       </c>
       <c r="F426" t="n">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="G426" t="inlineStr">
         <is>
@@ -20805,7 +20805,7 @@
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6165&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45541&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
@@ -20820,7 +20820,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Almacenaje y Transporte de Cal (e-seia)</t>
+          <t>Construcción de Unidad Deshumificadora de Aceite Lubricante Usado para Mejoramiento de la Calidad del Petroleo Combustible Recuperado</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -20830,16 +20830,16 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>Portuaria Carranza S.A.</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F427" t="n">
-        <v>177</v>
+        <v>250</v>
       </c>
       <c r="G427" t="inlineStr">
         <is>
@@ -20853,7 +20853,7 @@
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45541&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6165&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">

--- a/data/Maipú.xlsx
+++ b/data/Maipú.xlsx
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos líquidos que contengan aceites, lubricantes y combustibles usados, residuos de galvanoplastia y otros residuos industriales inorgánicos que no contengan metales pesados SENA - RIL Ltda</t>
+          <t>Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6146,16 +6146,16 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Sena-Ril Limitada</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>620</v>
+        <v>706</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6164,12 +6164,12 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7036699&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Óxido de Calcio</t>
+          <t>Planta de Tratamiento de Residuos líquidos que contengan aceites, lubricantes y combustibles usados, residuos de galvanoplastia y otros residuos industriales inorgánicos que no contengan metales pesados SENA - RIL Ltda</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6194,16 +6194,16 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>Sena-Ril Limitada</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>706</v>
+        <v>620</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -6212,12 +6212,12 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7036699&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -13106,16 +13106,16 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F266" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -13124,12 +13124,12 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -13154,16 +13154,16 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13172,12 +13172,12 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -16020,7 +16020,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16035,7 +16035,7 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F327" t="n">
@@ -16048,12 +16048,12 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -16068,7 +16068,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -16083,7 +16083,7 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F328" t="n">
@@ -16096,12 +16096,12 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -17700,7 +17700,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Elaboradora y Embotelladora de Bebidas Analcohólicas (e-seia)</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -17710,16 +17710,16 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>ALIMENTOS FRUNA LTDA.</t>
         </is>
       </c>
       <c r="F362" t="n">
-        <v>72</v>
+        <v>3000</v>
       </c>
       <c r="G362" t="inlineStr">
         <is>
@@ -17733,7 +17733,7 @@
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1199149&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
@@ -17748,7 +17748,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Elaboradora y Embotelladora de Bebidas Analcohólicas (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -17758,16 +17758,16 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>ALIMENTOS FRUNA LTDA.</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F363" t="n">
-        <v>3000</v>
+        <v>72</v>
       </c>
       <c r="G363" t="inlineStr">
         <is>
@@ -17781,7 +17781,7 @@
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1199149&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -19476,7 +19476,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -19504,12 +19504,12 @@
       </c>
       <c r="H399" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I399" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J399" t="inlineStr">
@@ -19524,7 +19524,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -19552,12 +19552,12 @@
       </c>
       <c r="H400" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I400" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J400" t="inlineStr">
@@ -20820,7 +20820,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Construcción de Unidad Deshumificadora de Aceite Lubricante Usado para Mejoramiento de la Calidad del Petroleo Combustible Recuperado</t>
+          <t>Almacenaje y Transporte de Cal (e-seia)</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -20830,16 +20830,16 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Portuaria Carranza S.A.</t>
         </is>
       </c>
       <c r="F427" t="n">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="G427" t="inlineStr">
         <is>
@@ -20853,7 +20853,7 @@
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6165&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45541&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
@@ -20868,7 +20868,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Almacenaje y Transporte de Cal (e-seia)</t>
+          <t>Construcción de Unidad Deshumificadora de Aceite Lubricante Usado para Mejoramiento de la Calidad del Petroleo Combustible Recuperado</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -20878,16 +20878,16 @@
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>Portuaria Carranza S.A.</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F428" t="n">
-        <v>177</v>
+        <v>250</v>
       </c>
       <c r="G428" t="inlineStr">
         <is>
@@ -20901,7 +20901,7 @@
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45541&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6165&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">

--- a/data/Maipú.xlsx
+++ b/data/Maipú.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/05/2023</t>
+          <t>23/05/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Maipú.xlsx
+++ b/data/Maipú.xlsx
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Óxido de Calcio</t>
+          <t>Planta de Tratamiento de Residuos líquidos que contengan aceites, lubricantes y combustibles usados, residuos de galvanoplastia y otros residuos industriales inorgánicos que no contengan metales pesados SENA - RIL Ltda</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6146,16 +6146,16 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>Sena-Ril Limitada</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>706</v>
+        <v>620</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6164,12 +6164,12 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7036699&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos líquidos que contengan aceites, lubricantes y combustibles usados, residuos de galvanoplastia y otros residuos industriales inorgánicos que no contengan metales pesados SENA - RIL Ltda</t>
+          <t>Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6194,16 +6194,16 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Sena-Ril Limitada</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>620</v>
+        <v>706</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -6212,12 +6212,12 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7036699&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -13106,16 +13106,16 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F266" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -13124,12 +13124,12 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -13154,16 +13154,16 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13172,12 +13172,12 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -16020,7 +16020,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16035,7 +16035,7 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F327" t="n">
@@ -16048,12 +16048,12 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -16068,7 +16068,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -16083,7 +16083,7 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F328" t="n">
@@ -16096,12 +16096,12 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -17700,7 +17700,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Elaboradora y Embotelladora de Bebidas Analcohólicas (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -17710,16 +17710,16 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>ALIMENTOS FRUNA LTDA.</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F362" t="n">
-        <v>3000</v>
+        <v>72</v>
       </c>
       <c r="G362" t="inlineStr">
         <is>
@@ -17733,7 +17733,7 @@
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1199149&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
@@ -17748,7 +17748,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Elaboradora y Embotelladora de Bebidas Analcohólicas (e-seia)</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -17758,16 +17758,16 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>ALIMENTOS FRUNA LTDA.</t>
         </is>
       </c>
       <c r="F363" t="n">
-        <v>72</v>
+        <v>3000</v>
       </c>
       <c r="G363" t="inlineStr">
         <is>
@@ -17781,7 +17781,7 @@
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1199149&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -19476,7 +19476,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -19504,12 +19504,12 @@
       </c>
       <c r="H399" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I399" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J399" t="inlineStr">
@@ -19524,7 +19524,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -19552,12 +19552,12 @@
       </c>
       <c r="H400" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I400" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J400" t="inlineStr">
@@ -20820,7 +20820,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Almacenaje y Transporte de Cal (e-seia)</t>
+          <t>Construcción de Unidad Deshumificadora de Aceite Lubricante Usado para Mejoramiento de la Calidad del Petroleo Combustible Recuperado</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -20830,16 +20830,16 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>Portuaria Carranza S.A.</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F427" t="n">
-        <v>177</v>
+        <v>250</v>
       </c>
       <c r="G427" t="inlineStr">
         <is>
@@ -20853,7 +20853,7 @@
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45541&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6165&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
@@ -20868,7 +20868,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Construcción de Unidad Deshumificadora de Aceite Lubricante Usado para Mejoramiento de la Calidad del Petroleo Combustible Recuperado</t>
+          <t>Almacenaje y Transporte de Cal (e-seia)</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -20878,16 +20878,16 @@
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Portuaria Carranza S.A.</t>
         </is>
       </c>
       <c r="F428" t="n">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="G428" t="inlineStr">
         <is>
@@ -20901,7 +20901,7 @@
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6165&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45541&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">

--- a/data/Maipú.xlsx
+++ b/data/Maipú.xlsx
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos líquidos que contengan aceites, lubricantes y combustibles usados, residuos de galvanoplastia y otros residuos industriales inorgánicos que no contengan metales pesados SENA - RIL Ltda</t>
+          <t>Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6194,16 +6194,16 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Sena-Ril Limitada</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>620</v>
+        <v>706</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -6212,12 +6212,12 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7036699&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Óxido de Calcio</t>
+          <t>Planta de Tratamiento de Residuos líquidos que contengan aceites, lubricantes y combustibles usados, residuos de galvanoplastia y otros residuos industriales inorgánicos que no contengan metales pesados SENA - RIL Ltda</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6242,16 +6242,16 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>Sena-Ril Limitada</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>706</v>
+        <v>620</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -6260,12 +6260,12 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7036699&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -13154,16 +13154,16 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13172,12 +13172,12 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -13202,16 +13202,16 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F268" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -13220,12 +13220,12 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -16068,7 +16068,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -16083,7 +16083,7 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F328" t="n">
@@ -16096,12 +16096,12 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -16116,7 +16116,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -16131,7 +16131,7 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F329" t="n">
@@ -16144,12 +16144,12 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -17748,7 +17748,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Elaboradora y Embotelladora de Bebidas Analcohólicas (e-seia)</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -17758,16 +17758,16 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>ALIMENTOS FRUNA LTDA.</t>
         </is>
       </c>
       <c r="F363" t="n">
-        <v>72</v>
+        <v>3000</v>
       </c>
       <c r="G363" t="inlineStr">
         <is>
@@ -17781,7 +17781,7 @@
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1199149&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -17796,7 +17796,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Elaboradora y Embotelladora de Bebidas Analcohólicas (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17806,16 +17806,16 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>ALIMENTOS FRUNA LTDA.</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F364" t="n">
-        <v>3000</v>
+        <v>72</v>
       </c>
       <c r="G364" t="inlineStr">
         <is>
@@ -17829,7 +17829,7 @@
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1199149&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -19524,7 +19524,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -19552,12 +19552,12 @@
       </c>
       <c r="H400" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I400" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J400" t="inlineStr">
@@ -19572,7 +19572,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -19600,12 +19600,12 @@
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J401" t="inlineStr">
@@ -20868,7 +20868,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Construcción de Unidad Deshumificadora de Aceite Lubricante Usado para Mejoramiento de la Calidad del Petroleo Combustible Recuperado</t>
+          <t>Almacenaje y Transporte de Cal (e-seia)</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -20878,16 +20878,16 @@
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Portuaria Carranza S.A.</t>
         </is>
       </c>
       <c r="F428" t="n">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="G428" t="inlineStr">
         <is>
@@ -20901,7 +20901,7 @@
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6165&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45541&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
@@ -20916,7 +20916,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Almacenaje y Transporte de Cal (e-seia)</t>
+          <t>Construcción de Unidad Deshumificadora de Aceite Lubricante Usado para Mejoramiento de la Calidad del Petroleo Combustible Recuperado</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -20926,16 +20926,16 @@
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>Portuaria Carranza S.A.</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F429" t="n">
-        <v>177</v>
+        <v>250</v>
       </c>
       <c r="G429" t="inlineStr">
         <is>
@@ -20949,7 +20949,7 @@
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45541&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6165&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">

--- a/data/Maipú.xlsx
+++ b/data/Maipú.xlsx
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Óxido de Calcio</t>
+          <t>Planta de Tratamiento de Residuos líquidos que contengan aceites, lubricantes y combustibles usados, residuos de galvanoplastia y otros residuos industriales inorgánicos que no contengan metales pesados SENA - RIL Ltda</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6194,16 +6194,16 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>Sena-Ril Limitada</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>706</v>
+        <v>620</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -6212,12 +6212,12 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7036699&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos líquidos que contengan aceites, lubricantes y combustibles usados, residuos de galvanoplastia y otros residuos industriales inorgánicos que no contengan metales pesados SENA - RIL Ltda</t>
+          <t>Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6242,16 +6242,16 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Sena-Ril Limitada</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>620</v>
+        <v>706</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -6260,12 +6260,12 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7036699&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -13154,16 +13154,16 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13172,12 +13172,12 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -13202,16 +13202,16 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F268" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -13220,12 +13220,12 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -16068,7 +16068,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -16083,7 +16083,7 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F328" t="n">
@@ -16096,12 +16096,12 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -16116,7 +16116,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -16131,7 +16131,7 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F329" t="n">
@@ -16144,12 +16144,12 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -17748,7 +17748,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Elaboradora y Embotelladora de Bebidas Analcohólicas (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -17758,16 +17758,16 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>ALIMENTOS FRUNA LTDA.</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F363" t="n">
-        <v>3000</v>
+        <v>72</v>
       </c>
       <c r="G363" t="inlineStr">
         <is>
@@ -17781,7 +17781,7 @@
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1199149&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -17796,7 +17796,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Elaboradora y Embotelladora de Bebidas Analcohólicas (e-seia)</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17806,16 +17806,16 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>ALIMENTOS FRUNA LTDA.</t>
         </is>
       </c>
       <c r="F364" t="n">
-        <v>72</v>
+        <v>3000</v>
       </c>
       <c r="G364" t="inlineStr">
         <is>
@@ -17829,7 +17829,7 @@
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1199149&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -19524,7 +19524,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -19552,12 +19552,12 @@
       </c>
       <c r="H400" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I400" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J400" t="inlineStr">
@@ -19572,7 +19572,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -19600,12 +19600,12 @@
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J401" t="inlineStr">
@@ -20868,7 +20868,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Almacenaje y Transporte de Cal (e-seia)</t>
+          <t>Construcción de Unidad Deshumificadora de Aceite Lubricante Usado para Mejoramiento de la Calidad del Petroleo Combustible Recuperado</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -20878,16 +20878,16 @@
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>Portuaria Carranza S.A.</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F428" t="n">
-        <v>177</v>
+        <v>250</v>
       </c>
       <c r="G428" t="inlineStr">
         <is>
@@ -20901,7 +20901,7 @@
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45541&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6165&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
@@ -20916,7 +20916,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Construcción de Unidad Deshumificadora de Aceite Lubricante Usado para Mejoramiento de la Calidad del Petroleo Combustible Recuperado</t>
+          <t>Almacenaje y Transporte de Cal (e-seia)</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -20926,16 +20926,16 @@
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Portuaria Carranza S.A.</t>
         </is>
       </c>
       <c r="F429" t="n">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="G429" t="inlineStr">
         <is>
@@ -20949,7 +20949,7 @@
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6165&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45541&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">

--- a/data/Maipú.xlsx
+++ b/data/Maipú.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>16/06/2023</t>
+          <t>20/06/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos líquidos que contengan aceites, lubricantes y combustibles usados, residuos de galvanoplastia y otros residuos industriales inorgánicos que no contengan metales pesados SENA - RIL Ltda</t>
+          <t>Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6194,16 +6194,16 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Sena-Ril Limitada</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>620</v>
+        <v>706</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -6212,12 +6212,12 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7036699&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Óxido de Calcio</t>
+          <t>Planta de Tratamiento de Residuos líquidos que contengan aceites, lubricantes y combustibles usados, residuos de galvanoplastia y otros residuos industriales inorgánicos que no contengan metales pesados SENA - RIL Ltda</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6242,16 +6242,16 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>Sena-Ril Limitada</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>706</v>
+        <v>620</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -6260,12 +6260,12 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7036699&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -13154,16 +13154,16 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13172,12 +13172,12 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -13202,16 +13202,16 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F268" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -13220,12 +13220,12 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -16068,7 +16068,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -16083,7 +16083,7 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F328" t="n">
@@ -16096,12 +16096,12 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -16116,7 +16116,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -16131,7 +16131,7 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F329" t="n">
@@ -16144,12 +16144,12 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -17748,7 +17748,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Elaboradora y Embotelladora de Bebidas Analcohólicas (e-seia)</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -17758,16 +17758,16 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>ALIMENTOS FRUNA LTDA.</t>
         </is>
       </c>
       <c r="F363" t="n">
-        <v>72</v>
+        <v>3000</v>
       </c>
       <c r="G363" t="inlineStr">
         <is>
@@ -17781,7 +17781,7 @@
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1199149&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -17796,7 +17796,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Elaboradora y Embotelladora de Bebidas Analcohólicas (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17806,16 +17806,16 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>ALIMENTOS FRUNA LTDA.</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F364" t="n">
-        <v>3000</v>
+        <v>72</v>
       </c>
       <c r="G364" t="inlineStr">
         <is>
@@ -17829,7 +17829,7 @@
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1199149&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -19524,7 +19524,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -19552,12 +19552,12 @@
       </c>
       <c r="H400" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I400" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J400" t="inlineStr">
@@ -19572,7 +19572,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -19600,12 +19600,12 @@
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J401" t="inlineStr">
@@ -20868,7 +20868,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Construcción de Unidad Deshumificadora de Aceite Lubricante Usado para Mejoramiento de la Calidad del Petroleo Combustible Recuperado</t>
+          <t>Almacenaje y Transporte de Cal (e-seia)</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -20878,16 +20878,16 @@
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Portuaria Carranza S.A.</t>
         </is>
       </c>
       <c r="F428" t="n">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="G428" t="inlineStr">
         <is>
@@ -20901,7 +20901,7 @@
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6165&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45541&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
@@ -20916,7 +20916,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Almacenaje y Transporte de Cal (e-seia)</t>
+          <t>Construcción de Unidad Deshumificadora de Aceite Lubricante Usado para Mejoramiento de la Calidad del Petroleo Combustible Recuperado</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -20926,16 +20926,16 @@
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>Portuaria Carranza S.A.</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F429" t="n">
-        <v>177</v>
+        <v>250</v>
       </c>
       <c r="G429" t="inlineStr">
         <is>
@@ -20949,7 +20949,7 @@
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45541&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6165&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">

--- a/data/Maipú.xlsx
+++ b/data/Maipú.xlsx
@@ -1735,7 +1735,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>INVERSIONES Y SERVICIOS INSER S.A.</t>
+          <t>DIMENSION S.A.</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos líquidos que contengan aceites, lubricantes y combustibles usados, residuos de galvanoplastia y otros residuos industriales inorgánicos que no contengan metales pesados SENA - RIL Ltda</t>
+          <t>Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6194,16 +6194,16 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Sena-Ril Limitada</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>620</v>
+        <v>706</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -6212,12 +6212,12 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7036699&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Óxido de Calcio</t>
+          <t>Planta de Tratamiento de Residuos líquidos que contengan aceites, lubricantes y combustibles usados, residuos de galvanoplastia y otros residuos industriales inorgánicos que no contengan metales pesados SENA - RIL Ltda</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6242,16 +6242,16 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>Sena-Ril Limitada</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>706</v>
+        <v>620</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -6260,12 +6260,12 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7036699&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -13154,16 +13154,16 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13172,12 +13172,12 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -13202,16 +13202,16 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F268" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -13220,12 +13220,12 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -16068,7 +16068,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -16083,7 +16083,7 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F328" t="n">
@@ -16096,12 +16096,12 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -16116,7 +16116,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -16131,7 +16131,7 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F329" t="n">
@@ -16144,12 +16144,12 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -17748,7 +17748,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Elaboradora y Embotelladora de Bebidas Analcohólicas (e-seia)</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -17758,16 +17758,16 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>ALIMENTOS FRUNA LTDA.</t>
         </is>
       </c>
       <c r="F363" t="n">
-        <v>72</v>
+        <v>3000</v>
       </c>
       <c r="G363" t="inlineStr">
         <is>
@@ -17781,7 +17781,7 @@
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1199149&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -17796,7 +17796,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Elaboradora y Embotelladora de Bebidas Analcohólicas (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17806,16 +17806,16 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>ALIMENTOS FRUNA LTDA.</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F364" t="n">
-        <v>3000</v>
+        <v>72</v>
       </c>
       <c r="G364" t="inlineStr">
         <is>
@@ -17829,7 +17829,7 @@
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1199149&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -19524,7 +19524,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -19552,12 +19552,12 @@
       </c>
       <c r="H400" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I400" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J400" t="inlineStr">
@@ -19572,7 +19572,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -19600,12 +19600,12 @@
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J401" t="inlineStr">
@@ -20868,7 +20868,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Construcción de Unidad Deshumificadora de Aceite Lubricante Usado para Mejoramiento de la Calidad del Petroleo Combustible Recuperado</t>
+          <t>Almacenaje y Transporte de Cal (e-seia)</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -20878,16 +20878,16 @@
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Portuaria Carranza S.A.</t>
         </is>
       </c>
       <c r="F428" t="n">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="G428" t="inlineStr">
         <is>
@@ -20901,7 +20901,7 @@
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6165&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45541&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
@@ -20916,7 +20916,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Almacenaje y Transporte de Cal (e-seia)</t>
+          <t>Construcción de Unidad Deshumificadora de Aceite Lubricante Usado para Mejoramiento de la Calidad del Petroleo Combustible Recuperado</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -20926,16 +20926,16 @@
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>Portuaria Carranza S.A.</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F429" t="n">
-        <v>177</v>
+        <v>250</v>
       </c>
       <c r="G429" t="inlineStr">
         <is>
@@ -20949,7 +20949,7 @@
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45541&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6165&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">

--- a/data/Maipú.xlsx
+++ b/data/Maipú.xlsx
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos líquidos que contengan aceites, lubricantes y combustibles usados, residuos de galvanoplastia y otros residuos industriales inorgánicos que no contengan metales pesados SENA - RIL Ltda</t>
+          <t>Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6242,16 +6242,16 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Sena-Ril Limitada</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>620</v>
+        <v>706</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -6260,12 +6260,12 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7036699&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Óxido de Calcio</t>
+          <t>Planta de Tratamiento de Residuos líquidos que contengan aceites, lubricantes y combustibles usados, residuos de galvanoplastia y otros residuos industriales inorgánicos que no contengan metales pesados SENA - RIL Ltda</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6290,16 +6290,16 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>Sena-Ril Limitada</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>706</v>
+        <v>620</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -6308,12 +6308,12 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7036699&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -13202,16 +13202,16 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F268" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -13220,12 +13220,12 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -13250,16 +13250,16 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F269" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -13268,12 +13268,12 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -16116,7 +16116,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -16131,7 +16131,7 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F329" t="n">
@@ -16144,12 +16144,12 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -16164,7 +16164,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -16179,7 +16179,7 @@
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F330" t="n">
@@ -16192,12 +16192,12 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
@@ -17796,7 +17796,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Elaboradora y Embotelladora de Bebidas Analcohólicas (e-seia)</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17806,16 +17806,16 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>ALIMENTOS FRUNA LTDA.</t>
         </is>
       </c>
       <c r="F364" t="n">
-        <v>72</v>
+        <v>3000</v>
       </c>
       <c r="G364" t="inlineStr">
         <is>
@@ -17829,7 +17829,7 @@
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1199149&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -17844,7 +17844,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Elaboradora y Embotelladora de Bebidas Analcohólicas (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17854,16 +17854,16 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>ALIMENTOS FRUNA LTDA.</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F365" t="n">
-        <v>3000</v>
+        <v>72</v>
       </c>
       <c r="G365" t="inlineStr">
         <is>
@@ -17877,7 +17877,7 @@
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1199149&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -19572,7 +19572,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -19600,12 +19600,12 @@
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J401" t="inlineStr">
@@ -19620,7 +19620,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -19648,12 +19648,12 @@
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I402" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J402" t="inlineStr">
@@ -20916,7 +20916,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Construcción de Unidad Deshumificadora de Aceite Lubricante Usado para Mejoramiento de la Calidad del Petroleo Combustible Recuperado</t>
+          <t>Almacenaje y Transporte de Cal (e-seia)</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -20926,16 +20926,16 @@
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Portuaria Carranza S.A.</t>
         </is>
       </c>
       <c r="F429" t="n">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="G429" t="inlineStr">
         <is>
@@ -20949,7 +20949,7 @@
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6165&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45541&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
@@ -20964,7 +20964,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Almacenaje y Transporte de Cal (e-seia)</t>
+          <t>Construcción de Unidad Deshumificadora de Aceite Lubricante Usado para Mejoramiento de la Calidad del Petroleo Combustible Recuperado</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -20974,16 +20974,16 @@
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>Portuaria Carranza S.A.</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F430" t="n">
-        <v>177</v>
+        <v>250</v>
       </c>
       <c r="G430" t="inlineStr">
         <is>
@@ -20997,7 +20997,7 @@
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45541&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6165&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">

--- a/data/Maipú.xlsx
+++ b/data/Maipú.xlsx
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Óxido de Calcio</t>
+          <t>Planta de Tratamiento de Residuos líquidos que contengan aceites, lubricantes y combustibles usados, residuos de galvanoplastia y otros residuos industriales inorgánicos que no contengan metales pesados SENA - RIL Ltda</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6242,16 +6242,16 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>Sena-Ril Limitada</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>706</v>
+        <v>620</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -6260,12 +6260,12 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7036699&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos líquidos que contengan aceites, lubricantes y combustibles usados, residuos de galvanoplastia y otros residuos industriales inorgánicos que no contengan metales pesados SENA - RIL Ltda</t>
+          <t>Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6290,16 +6290,16 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Sena-Ril Limitada</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>620</v>
+        <v>706</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -6308,12 +6308,12 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7036699&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -13202,16 +13202,16 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F268" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -13220,12 +13220,12 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -13250,16 +13250,16 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F269" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -13268,12 +13268,12 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -16116,7 +16116,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -16131,7 +16131,7 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F329" t="n">
@@ -16144,12 +16144,12 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -16164,7 +16164,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -16179,7 +16179,7 @@
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F330" t="n">
@@ -16192,12 +16192,12 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
@@ -17796,7 +17796,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Elaboradora y Embotelladora de Bebidas Analcohólicas (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17806,16 +17806,16 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>ALIMENTOS FRUNA LTDA.</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F364" t="n">
-        <v>3000</v>
+        <v>72</v>
       </c>
       <c r="G364" t="inlineStr">
         <is>
@@ -17829,7 +17829,7 @@
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1199149&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -17844,7 +17844,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Elaboradora y Embotelladora de Bebidas Analcohólicas (e-seia)</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17854,16 +17854,16 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>ALIMENTOS FRUNA LTDA.</t>
         </is>
       </c>
       <c r="F365" t="n">
-        <v>72</v>
+        <v>3000</v>
       </c>
       <c r="G365" t="inlineStr">
         <is>
@@ -17877,7 +17877,7 @@
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1199149&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -19572,7 +19572,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -19600,12 +19600,12 @@
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J401" t="inlineStr">
@@ -19620,7 +19620,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -19648,12 +19648,12 @@
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I402" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J402" t="inlineStr">
@@ -20916,7 +20916,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Almacenaje y Transporte de Cal (e-seia)</t>
+          <t>Construcción de Unidad Deshumificadora de Aceite Lubricante Usado para Mejoramiento de la Calidad del Petroleo Combustible Recuperado</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -20926,16 +20926,16 @@
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>Portuaria Carranza S.A.</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F429" t="n">
-        <v>177</v>
+        <v>250</v>
       </c>
       <c r="G429" t="inlineStr">
         <is>
@@ -20949,7 +20949,7 @@
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45541&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6165&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
@@ -20964,7 +20964,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Construcción de Unidad Deshumificadora de Aceite Lubricante Usado para Mejoramiento de la Calidad del Petroleo Combustible Recuperado</t>
+          <t>Almacenaje y Transporte de Cal (e-seia)</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -20974,16 +20974,16 @@
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Portuaria Carranza S.A.</t>
         </is>
       </c>
       <c r="F430" t="n">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="G430" t="inlineStr">
         <is>
@@ -20997,7 +20997,7 @@
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6165&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45541&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">

--- a/data/Maipú.xlsx
+++ b/data/Maipú.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>24/10/2023</t>
+          <t>02/11/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos líquidos que contengan aceites, lubricantes y combustibles usados, residuos de galvanoplastia y otros residuos industriales inorgánicos que no contengan metales pesados SENA - RIL Ltda</t>
+          <t>Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6242,16 +6242,16 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Sena-Ril Limitada</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>620</v>
+        <v>706</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -6260,12 +6260,12 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7036699&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Óxido de Calcio</t>
+          <t>Planta de Tratamiento de Residuos líquidos que contengan aceites, lubricantes y combustibles usados, residuos de galvanoplastia y otros residuos industriales inorgánicos que no contengan metales pesados SENA - RIL Ltda</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6290,16 +6290,16 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>Sena-Ril Limitada</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>706</v>
+        <v>620</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -6308,12 +6308,12 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7036699&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -13202,16 +13202,16 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F268" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -13220,12 +13220,12 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -13250,16 +13250,16 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F269" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -13268,12 +13268,12 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -16116,7 +16116,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -16131,7 +16131,7 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F329" t="n">
@@ -16144,12 +16144,12 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -16164,7 +16164,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -16179,7 +16179,7 @@
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F330" t="n">
@@ -16192,12 +16192,12 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
@@ -17796,7 +17796,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Elaboradora y Embotelladora de Bebidas Analcohólicas (e-seia)</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17806,16 +17806,16 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>ALIMENTOS FRUNA LTDA.</t>
         </is>
       </c>
       <c r="F364" t="n">
-        <v>72</v>
+        <v>3000</v>
       </c>
       <c r="G364" t="inlineStr">
         <is>
@@ -17829,7 +17829,7 @@
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1199149&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -17844,7 +17844,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Elaboradora y Embotelladora de Bebidas Analcohólicas (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17854,16 +17854,16 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>ALIMENTOS FRUNA LTDA.</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F365" t="n">
-        <v>3000</v>
+        <v>72</v>
       </c>
       <c r="G365" t="inlineStr">
         <is>
@@ -17877,7 +17877,7 @@
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1199149&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -19572,7 +19572,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -19600,12 +19600,12 @@
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J401" t="inlineStr">
@@ -19620,7 +19620,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -19648,12 +19648,12 @@
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I402" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J402" t="inlineStr">
@@ -20916,7 +20916,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Construcción de Unidad Deshumificadora de Aceite Lubricante Usado para Mejoramiento de la Calidad del Petroleo Combustible Recuperado</t>
+          <t>Almacenaje y Transporte de Cal (e-seia)</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -20926,16 +20926,16 @@
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Portuaria Carranza S.A.</t>
         </is>
       </c>
       <c r="F429" t="n">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="G429" t="inlineStr">
         <is>
@@ -20949,7 +20949,7 @@
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6165&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45541&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
@@ -20964,7 +20964,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Almacenaje y Transporte de Cal (e-seia)</t>
+          <t>Construcción de Unidad Deshumificadora de Aceite Lubricante Usado para Mejoramiento de la Calidad del Petroleo Combustible Recuperado</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -20974,16 +20974,16 @@
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>Portuaria Carranza S.A.</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F430" t="n">
-        <v>177</v>
+        <v>250</v>
       </c>
       <c r="G430" t="inlineStr">
         <is>
@@ -20997,7 +20997,7 @@
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45541&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6165&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">

--- a/data/Maipú.xlsx
+++ b/data/Maipú.xlsx
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Óxido de Calcio</t>
+          <t>Planta de Tratamiento de Residuos líquidos que contengan aceites, lubricantes y combustibles usados, residuos de galvanoplastia y otros residuos industriales inorgánicos que no contengan metales pesados SENA - RIL Ltda</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6290,16 +6290,16 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>Sena-Ril Limitada</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>706</v>
+        <v>620</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -6308,12 +6308,12 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7036699&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos líquidos que contengan aceites, lubricantes y combustibles usados, residuos de galvanoplastia y otros residuos industriales inorgánicos que no contengan metales pesados SENA - RIL Ltda</t>
+          <t>Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6338,16 +6338,16 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Sena-Ril Limitada</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>620</v>
+        <v>706</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -6356,12 +6356,12 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7036699&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -13250,16 +13250,16 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F269" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -13268,12 +13268,12 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -13298,16 +13298,16 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F270" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -13316,12 +13316,12 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
@@ -16164,7 +16164,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -16179,7 +16179,7 @@
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F330" t="n">
@@ -16192,12 +16192,12 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
@@ -16212,7 +16212,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -16227,7 +16227,7 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F331" t="n">
@@ -16240,12 +16240,12 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
@@ -17844,7 +17844,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Elaboradora y Embotelladora de Bebidas Analcohólicas (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17854,16 +17854,16 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>ALIMENTOS FRUNA LTDA.</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F365" t="n">
-        <v>3000</v>
+        <v>72</v>
       </c>
       <c r="G365" t="inlineStr">
         <is>
@@ -17877,7 +17877,7 @@
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1199149&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -17892,7 +17892,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Elaboradora y Embotelladora de Bebidas Analcohólicas (e-seia)</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -17902,16 +17902,16 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>ALIMENTOS FRUNA LTDA.</t>
         </is>
       </c>
       <c r="F366" t="n">
-        <v>72</v>
+        <v>3000</v>
       </c>
       <c r="G366" t="inlineStr">
         <is>
@@ -17925,7 +17925,7 @@
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1199149&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
@@ -19620,7 +19620,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -19648,12 +19648,12 @@
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I402" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J402" t="inlineStr">
@@ -19668,7 +19668,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -19696,12 +19696,12 @@
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J403" t="inlineStr">
@@ -20964,7 +20964,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Almacenaje y Transporte de Cal (e-seia)</t>
+          <t>Construcción de Unidad Deshumificadora de Aceite Lubricante Usado para Mejoramiento de la Calidad del Petroleo Combustible Recuperado</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -20974,16 +20974,16 @@
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>Portuaria Carranza S.A.</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F430" t="n">
-        <v>177</v>
+        <v>250</v>
       </c>
       <c r="G430" t="inlineStr">
         <is>
@@ -20997,7 +20997,7 @@
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45541&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6165&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
@@ -21012,7 +21012,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>Construcción de Unidad Deshumificadora de Aceite Lubricante Usado para Mejoramiento de la Calidad del Petroleo Combustible Recuperado</t>
+          <t>Almacenaje y Transporte de Cal (e-seia)</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -21022,16 +21022,16 @@
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Portuaria Carranza S.A.</t>
         </is>
       </c>
       <c r="F431" t="n">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="G431" t="inlineStr">
         <is>
@@ -21045,7 +21045,7 @@
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6165&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45541&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J431" t="inlineStr">

--- a/data/Maipú.xlsx
+++ b/data/Maipú.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/11/2023</t>
+          <t>22/11/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Maipú.xlsx
+++ b/data/Maipú.xlsx
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos líquidos que contengan aceites, lubricantes y combustibles usados, residuos de galvanoplastia y otros residuos industriales inorgánicos que no contengan metales pesados SENA - RIL Ltda</t>
+          <t>Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6290,16 +6290,16 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Sena-Ril Limitada</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>620</v>
+        <v>706</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -6308,12 +6308,12 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7036699&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Óxido de Calcio</t>
+          <t>Planta de Tratamiento de Residuos líquidos que contengan aceites, lubricantes y combustibles usados, residuos de galvanoplastia y otros residuos industriales inorgánicos que no contengan metales pesados SENA - RIL Ltda</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6338,16 +6338,16 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>Sena-Ril Limitada</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>706</v>
+        <v>620</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -6356,12 +6356,12 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7036699&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -13250,16 +13250,16 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F269" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -13268,12 +13268,12 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -13298,16 +13298,16 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F270" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -13316,12 +13316,12 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
@@ -16164,7 +16164,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -16179,7 +16179,7 @@
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F330" t="n">
@@ -16192,12 +16192,12 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
@@ -16212,7 +16212,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -16227,7 +16227,7 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F331" t="n">
@@ -16240,12 +16240,12 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
@@ -17844,7 +17844,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Elaboradora y Embotelladora de Bebidas Analcohólicas (e-seia)</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17854,16 +17854,16 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>ALIMENTOS FRUNA LTDA.</t>
         </is>
       </c>
       <c r="F365" t="n">
-        <v>72</v>
+        <v>3000</v>
       </c>
       <c r="G365" t="inlineStr">
         <is>
@@ -17877,7 +17877,7 @@
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1199149&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -17892,7 +17892,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Elaboradora y Embotelladora de Bebidas Analcohólicas (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -17902,16 +17902,16 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>ALIMENTOS FRUNA LTDA.</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F366" t="n">
-        <v>3000</v>
+        <v>72</v>
       </c>
       <c r="G366" t="inlineStr">
         <is>
@@ -17925,7 +17925,7 @@
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1199149&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
@@ -19620,7 +19620,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -19648,12 +19648,12 @@
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I402" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J402" t="inlineStr">
@@ -19668,7 +19668,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -19696,12 +19696,12 @@
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J403" t="inlineStr">
@@ -20964,7 +20964,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Construcción de Unidad Deshumificadora de Aceite Lubricante Usado para Mejoramiento de la Calidad del Petroleo Combustible Recuperado</t>
+          <t>Almacenaje y Transporte de Cal (e-seia)</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -20974,16 +20974,16 @@
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Portuaria Carranza S.A.</t>
         </is>
       </c>
       <c r="F430" t="n">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="G430" t="inlineStr">
         <is>
@@ -20997,7 +20997,7 @@
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6165&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45541&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
@@ -21012,7 +21012,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>Almacenaje y Transporte de Cal (e-seia)</t>
+          <t>Construcción de Unidad Deshumificadora de Aceite Lubricante Usado para Mejoramiento de la Calidad del Petroleo Combustible Recuperado</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -21022,16 +21022,16 @@
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>Portuaria Carranza S.A.</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F431" t="n">
-        <v>177</v>
+        <v>250</v>
       </c>
       <c r="G431" t="inlineStr">
         <is>
@@ -21045,7 +21045,7 @@
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45541&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6165&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J431" t="inlineStr">
